--- a/996组WoniuBoss测试方案.xlsx
+++ b/996组WoniuBoss测试方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19935" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目概述及范围" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="535">
   <si>
     <t>1.</t>
   </si>
@@ -2134,6 +2134,15 @@
     <t>检查登录是否能被多个浏览器登录</t>
     <phoneticPr fontId="56" type="noConversion"/>
   </si>
+  <si>
+    <t>测试过程中涉及老师讲课延迟项目进度</t>
+  </si>
+  <si>
+    <t>老师课程安排</t>
+  </si>
+  <si>
+    <t>项目周期延后，抓紧进度</t>
+  </si>
 </sst>
 </file>
 
@@ -2145,6 +2154,14 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2196,13 +2213,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -3514,7 +3524,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="392">
+  <cellStyleXfs count="462">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3838,10 +3848,10 @@
     <xf numFmtId="0" fontId="74" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3850,10 +3860,10 @@
     <xf numFmtId="0" fontId="74" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3862,10 +3872,10 @@
     <xf numFmtId="0" fontId="74" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3874,10 +3884,10 @@
     <xf numFmtId="0" fontId="74" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3886,10 +3896,10 @@
     <xf numFmtId="0" fontId="74" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3898,23 +3908,23 @@
     <xf numFmtId="0" fontId="74" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="76" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
@@ -3922,46 +3932,46 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4443,10 +4453,10 @@
     <xf numFmtId="0" fontId="74" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4455,10 +4465,10 @@
     <xf numFmtId="0" fontId="74" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4467,10 +4477,10 @@
     <xf numFmtId="0" fontId="74" fillId="52" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="55" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4479,10 +4489,10 @@
     <xf numFmtId="0" fontId="74" fillId="56" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="59" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4491,10 +4501,10 @@
     <xf numFmtId="0" fontId="74" fillId="60" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="63" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4503,103 +4513,103 @@
     <xf numFmtId="0" fontId="74" fillId="64" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="74" fillId="67" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4621,13 +4631,220 @@
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="102" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="53" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="54" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="57" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="58" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="61" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="62" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="65" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="66" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="80" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4642,17 +4859,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="80" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4699,7 +4910,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4951,6 +5162,30 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="3" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="4" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4990,15 +5225,6 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="6" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5012,21 +5238,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="3" borderId="3" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="3" borderId="4" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="3" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
@@ -5057,6 +5268,27 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="137" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="137" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -5084,15 +5316,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5108,9 +5331,6 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="5" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5120,224 +5340,284 @@
     <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="80" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="137" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="137" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="80" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="80" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="392">
+  <cellStyles count="462">
     <cellStyle name="20% - 强调文字颜色 1" xfId="114" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2" xfId="19"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 2" xfId="171"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 3" xfId="231"/>
     <cellStyle name="20% - 强调文字颜色 1 2 2 4" xfId="359"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 2 4 2" xfId="448"/>
     <cellStyle name="20% - 强调文字颜色 1 2 3" xfId="11"/>
     <cellStyle name="20% - 强调文字颜色 1 2 3 2" xfId="166"/>
     <cellStyle name="20% - 强调文字颜色 1 2 3 3" xfId="223"/>
     <cellStyle name="20% - 强调文字颜色 1 2 4" xfId="143"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 4 2" xfId="406"/>
     <cellStyle name="20% - 强调文字颜色 1 2 5" xfId="157"/>
     <cellStyle name="20% - 强调文字颜色 1 2 6" xfId="213"/>
     <cellStyle name="20% - 强调文字颜色 1 2 7" xfId="320"/>
+    <cellStyle name="20% - 强调文字颜色 1 2 7 2" xfId="420"/>
     <cellStyle name="20% - 强调文字颜色 1 3" xfId="15"/>
     <cellStyle name="20% - 强调文字颜色 1 3 2" xfId="168"/>
     <cellStyle name="20% - 强调文字颜色 1 3 3" xfId="227"/>
     <cellStyle name="20% - 强调文字颜色 1 4" xfId="345"/>
+    <cellStyle name="20% - 强调文字颜色 1 4 2" xfId="434"/>
+    <cellStyle name="20% - 强调文字颜色 1 5" xfId="392"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="118" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="20"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2" xfId="4"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 2" xfId="159"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 3" xfId="216"/>
     <cellStyle name="20% - 强调文字颜色 2 2 2 4" xfId="361"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 2 4 2" xfId="450"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3 2" xfId="173"/>
     <cellStyle name="20% - 强调文字颜色 2 2 3 3" xfId="233"/>
     <cellStyle name="20% - 强调文字颜色 2 2 4" xfId="145"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 4 2" xfId="408"/>
     <cellStyle name="20% - 强调文字颜色 2 2 5" xfId="172"/>
     <cellStyle name="20% - 强调文字颜色 2 2 6" xfId="232"/>
     <cellStyle name="20% - 强调文字颜色 2 2 7" xfId="324"/>
+    <cellStyle name="20% - 强调文字颜色 2 2 7 2" xfId="422"/>
     <cellStyle name="20% - 强调文字颜色 2 3" xfId="8"/>
     <cellStyle name="20% - 强调文字颜色 2 3 2" xfId="163"/>
     <cellStyle name="20% - 强调文字颜色 2 3 3" xfId="220"/>
     <cellStyle name="20% - 强调文字颜色 2 4" xfId="347"/>
+    <cellStyle name="20% - 强调文字颜色 2 4 2" xfId="436"/>
+    <cellStyle name="20% - 强调文字颜色 2 5" xfId="394"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="122" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="18"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2" xfId="3"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 2" xfId="158"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 3" xfId="215"/>
     <cellStyle name="20% - 强调文字颜色 3 2 2 4" xfId="363"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 2 4 2" xfId="452"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3" xfId="5"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3 2" xfId="160"/>
     <cellStyle name="20% - 强调文字颜色 3 2 3 3" xfId="217"/>
     <cellStyle name="20% - 强调文字颜色 3 2 4" xfId="147"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 4 2" xfId="410"/>
     <cellStyle name="20% - 强调文字颜色 3 2 5" xfId="170"/>
     <cellStyle name="20% - 强调文字颜色 3 2 6" xfId="230"/>
     <cellStyle name="20% - 强调文字颜色 3 2 7" xfId="328"/>
+    <cellStyle name="20% - 强调文字颜色 3 2 7 2" xfId="424"/>
     <cellStyle name="20% - 强调文字颜色 3 3" xfId="9"/>
     <cellStyle name="20% - 强调文字颜色 3 3 2" xfId="164"/>
     <cellStyle name="20% - 强调文字颜色 3 3 3" xfId="221"/>
     <cellStyle name="20% - 强调文字颜色 3 4" xfId="349"/>
+    <cellStyle name="20% - 强调文字颜色 3 4 2" xfId="438"/>
+    <cellStyle name="20% - 强调文字颜色 3 5" xfId="396"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="126" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="23"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2" xfId="14"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 2" xfId="167"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 3" xfId="226"/>
     <cellStyle name="20% - 强调文字颜色 4 2 2 4" xfId="365"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 2 4 2" xfId="454"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3" xfId="16"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3 2" xfId="169"/>
     <cellStyle name="20% - 强调文字颜色 4 2 3 3" xfId="228"/>
     <cellStyle name="20% - 强调文字颜色 4 2 4" xfId="149"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 4 2" xfId="412"/>
     <cellStyle name="20% - 强调文字颜色 4 2 5" xfId="174"/>
     <cellStyle name="20% - 强调文字颜色 4 2 6" xfId="234"/>
     <cellStyle name="20% - 强调文字颜色 4 2 7" xfId="332"/>
+    <cellStyle name="20% - 强调文字颜色 4 2 7 2" xfId="426"/>
     <cellStyle name="20% - 强调文字颜色 4 3" xfId="25"/>
     <cellStyle name="20% - 强调文字颜色 4 3 2" xfId="175"/>
     <cellStyle name="20% - 强调文字颜色 4 3 3" xfId="235"/>
     <cellStyle name="20% - 强调文字颜色 4 4" xfId="351"/>
+    <cellStyle name="20% - 强调文字颜色 4 4 2" xfId="440"/>
+    <cellStyle name="20% - 强调文字颜色 4 5" xfId="398"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="130" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="26"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2" xfId="27"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 2" xfId="177"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 3" xfId="237"/>
     <cellStyle name="20% - 强调文字颜色 5 2 2 4" xfId="367"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 2 4 2" xfId="456"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3" xfId="28"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3 2" xfId="178"/>
     <cellStyle name="20% - 强调文字颜色 5 2 3 3" xfId="238"/>
     <cellStyle name="20% - 强调文字颜色 5 2 4" xfId="151"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 4 2" xfId="414"/>
     <cellStyle name="20% - 强调文字颜色 5 2 5" xfId="176"/>
     <cellStyle name="20% - 强调文字颜色 5 2 6" xfId="236"/>
     <cellStyle name="20% - 强调文字颜色 5 2 7" xfId="336"/>
+    <cellStyle name="20% - 强调文字颜色 5 2 7 2" xfId="428"/>
     <cellStyle name="20% - 强调文字颜色 5 3" xfId="29"/>
     <cellStyle name="20% - 强调文字颜色 5 3 2" xfId="179"/>
     <cellStyle name="20% - 强调文字颜色 5 3 3" xfId="239"/>
     <cellStyle name="20% - 强调文字颜色 5 4" xfId="353"/>
+    <cellStyle name="20% - 强调文字颜色 5 4 2" xfId="442"/>
+    <cellStyle name="20% - 强调文字颜色 5 5" xfId="400"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="134" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="30"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2" xfId="31"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 2" xfId="181"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 3" xfId="241"/>
     <cellStyle name="20% - 强调文字颜色 6 2 2 4" xfId="369"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 2 4 2" xfId="458"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3 2" xfId="182"/>
     <cellStyle name="20% - 强调文字颜色 6 2 3 3" xfId="242"/>
     <cellStyle name="20% - 强调文字颜色 6 2 4" xfId="153"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 4 2" xfId="416"/>
     <cellStyle name="20% - 强调文字颜色 6 2 5" xfId="180"/>
     <cellStyle name="20% - 强调文字颜色 6 2 6" xfId="240"/>
     <cellStyle name="20% - 强调文字颜色 6 2 7" xfId="340"/>
+    <cellStyle name="20% - 强调文字颜色 6 2 7 2" xfId="430"/>
     <cellStyle name="20% - 强调文字颜色 6 3" xfId="33"/>
     <cellStyle name="20% - 强调文字颜色 6 3 2" xfId="183"/>
     <cellStyle name="20% - 强调文字颜色 6 3 3" xfId="243"/>
     <cellStyle name="20% - 强调文字颜色 6 4" xfId="355"/>
+    <cellStyle name="20% - 强调文字颜色 6 4 2" xfId="444"/>
+    <cellStyle name="20% - 强调文字颜色 6 5" xfId="402"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="115" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="34"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2" xfId="35"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 2" xfId="185"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 3" xfId="245"/>
     <cellStyle name="40% - 强调文字颜色 1 2 2 4" xfId="360"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 2 4 2" xfId="449"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3" xfId="36"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3 2" xfId="186"/>
     <cellStyle name="40% - 强调文字颜色 1 2 3 3" xfId="246"/>
     <cellStyle name="40% - 强调文字颜色 1 2 4" xfId="144"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 4 2" xfId="407"/>
     <cellStyle name="40% - 强调文字颜色 1 2 5" xfId="184"/>
     <cellStyle name="40% - 强调文字颜色 1 2 6" xfId="244"/>
     <cellStyle name="40% - 强调文字颜色 1 2 7" xfId="321"/>
+    <cellStyle name="40% - 强调文字颜色 1 2 7 2" xfId="421"/>
     <cellStyle name="40% - 强调文字颜色 1 3" xfId="37"/>
     <cellStyle name="40% - 强调文字颜色 1 3 2" xfId="187"/>
     <cellStyle name="40% - 强调文字颜色 1 3 3" xfId="247"/>
     <cellStyle name="40% - 强调文字颜色 1 4" xfId="346"/>
+    <cellStyle name="40% - 强调文字颜色 1 4 2" xfId="435"/>
+    <cellStyle name="40% - 强调文字颜色 1 5" xfId="393"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="119" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="10"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2" xfId="38"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 2" xfId="188"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 3" xfId="248"/>
     <cellStyle name="40% - 强调文字颜色 2 2 2 4" xfId="362"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 2 4 2" xfId="451"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3" xfId="39"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 2" xfId="189"/>
     <cellStyle name="40% - 强调文字颜色 2 2 3 3" xfId="249"/>
     <cellStyle name="40% - 强调文字颜色 2 2 4" xfId="146"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 4 2" xfId="409"/>
     <cellStyle name="40% - 强调文字颜色 2 2 5" xfId="165"/>
     <cellStyle name="40% - 强调文字颜色 2 2 6" xfId="222"/>
     <cellStyle name="40% - 强调文字颜色 2 2 7" xfId="325"/>
+    <cellStyle name="40% - 强调文字颜色 2 2 7 2" xfId="423"/>
     <cellStyle name="40% - 强调文字颜色 2 3" xfId="40"/>
     <cellStyle name="40% - 强调文字颜色 2 3 2" xfId="190"/>
     <cellStyle name="40% - 强调文字颜色 2 3 3" xfId="250"/>
     <cellStyle name="40% - 强调文字颜色 2 4" xfId="348"/>
+    <cellStyle name="40% - 强调文字颜色 2 4 2" xfId="437"/>
+    <cellStyle name="40% - 强调文字颜色 2 5" xfId="395"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="123" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="41"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2" xfId="42"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 2" xfId="192"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 3" xfId="252"/>
     <cellStyle name="40% - 强调文字颜色 3 2 2 4" xfId="364"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 2 4 2" xfId="453"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3" xfId="43"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 2" xfId="193"/>
     <cellStyle name="40% - 强调文字颜色 3 2 3 3" xfId="253"/>
     <cellStyle name="40% - 强调文字颜色 3 2 4" xfId="148"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 4 2" xfId="411"/>
     <cellStyle name="40% - 强调文字颜色 3 2 5" xfId="191"/>
     <cellStyle name="40% - 强调文字颜色 3 2 6" xfId="251"/>
     <cellStyle name="40% - 强调文字颜色 3 2 7" xfId="329"/>
+    <cellStyle name="40% - 强调文字颜色 3 2 7 2" xfId="425"/>
     <cellStyle name="40% - 强调文字颜色 3 3" xfId="44"/>
     <cellStyle name="40% - 强调文字颜色 3 3 2" xfId="194"/>
     <cellStyle name="40% - 强调文字颜色 3 3 3" xfId="254"/>
     <cellStyle name="40% - 强调文字颜色 3 4" xfId="350"/>
+    <cellStyle name="40% - 强调文字颜色 3 4 2" xfId="439"/>
+    <cellStyle name="40% - 强调文字颜色 3 5" xfId="397"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="127" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="6"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2" xfId="46"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 2" xfId="195"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 3" xfId="256"/>
     <cellStyle name="40% - 强调文字颜色 4 2 2 4" xfId="366"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 2 4 2" xfId="455"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3" xfId="47"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3 2" xfId="196"/>
     <cellStyle name="40% - 强调文字颜色 4 2 3 3" xfId="257"/>
     <cellStyle name="40% - 强调文字颜色 4 2 4" xfId="150"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 4 2" xfId="413"/>
     <cellStyle name="40% - 强调文字颜色 4 2 5" xfId="161"/>
     <cellStyle name="40% - 强调文字颜色 4 2 6" xfId="218"/>
     <cellStyle name="40% - 强调文字颜色 4 2 7" xfId="333"/>
+    <cellStyle name="40% - 强调文字颜色 4 2 7 2" xfId="427"/>
     <cellStyle name="40% - 强调文字颜色 4 3" xfId="48"/>
     <cellStyle name="40% - 强调文字颜色 4 3 2" xfId="197"/>
     <cellStyle name="40% - 强调文字颜色 4 3 3" xfId="258"/>
     <cellStyle name="40% - 强调文字颜色 4 4" xfId="352"/>
+    <cellStyle name="40% - 强调文字颜色 4 4 2" xfId="441"/>
+    <cellStyle name="40% - 强调文字颜色 4 5" xfId="399"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="131" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="49"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2" xfId="50"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 2" xfId="199"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 3" xfId="260"/>
     <cellStyle name="40% - 强调文字颜色 5 2 2 4" xfId="368"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 2 4 2" xfId="457"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3" xfId="51"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3 2" xfId="200"/>
     <cellStyle name="40% - 强调文字颜色 5 2 3 3" xfId="261"/>
     <cellStyle name="40% - 强调文字颜色 5 2 4" xfId="152"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 4 2" xfId="415"/>
     <cellStyle name="40% - 强调文字颜色 5 2 5" xfId="198"/>
     <cellStyle name="40% - 强调文字颜色 5 2 6" xfId="259"/>
     <cellStyle name="40% - 强调文字颜色 5 2 7" xfId="337"/>
+    <cellStyle name="40% - 强调文字颜色 5 2 7 2" xfId="429"/>
     <cellStyle name="40% - 强调文字颜色 5 3" xfId="52"/>
     <cellStyle name="40% - 强调文字颜色 5 3 2" xfId="201"/>
     <cellStyle name="40% - 强调文字颜色 5 3 3" xfId="262"/>
     <cellStyle name="40% - 强调文字颜色 5 4" xfId="354"/>
+    <cellStyle name="40% - 强调文字颜色 5 4 2" xfId="443"/>
+    <cellStyle name="40% - 强调文字颜色 5 5" xfId="401"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="135" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="53"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2" xfId="54"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 2" xfId="203"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 3" xfId="264"/>
     <cellStyle name="40% - 强调文字颜色 6 2 2 4" xfId="370"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 2 4 2" xfId="459"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3" xfId="55"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 2" xfId="204"/>
     <cellStyle name="40% - 强调文字颜色 6 2 3 3" xfId="265"/>
     <cellStyle name="40% - 强调文字颜色 6 2 4" xfId="154"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 4 2" xfId="417"/>
     <cellStyle name="40% - 强调文字颜色 6 2 5" xfId="202"/>
     <cellStyle name="40% - 强调文字颜色 6 2 6" xfId="263"/>
     <cellStyle name="40% - 强调文字颜色 6 2 7" xfId="341"/>
+    <cellStyle name="40% - 强调文字颜色 6 2 7 2" xfId="431"/>
     <cellStyle name="40% - 强调文字颜色 6 3" xfId="56"/>
     <cellStyle name="40% - 强调文字颜色 6 3 2" xfId="205"/>
     <cellStyle name="40% - 强调文字颜色 6 3 3" xfId="266"/>
     <cellStyle name="40% - 强调文字颜色 6 4" xfId="356"/>
+    <cellStyle name="40% - 强调文字颜色 6 4 2" xfId="445"/>
+    <cellStyle name="40% - 强调文字颜色 6 5" xfId="403"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="116" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 1 2" xfId="57"/>
     <cellStyle name="60% - 强调文字颜色 1 2 2" xfId="267"/>
@@ -5406,20 +5686,25 @@
     <cellStyle name="常规 2 3" xfId="74"/>
     <cellStyle name="常规 2 3 2" xfId="75"/>
     <cellStyle name="常规 2 3 2 2" xfId="155"/>
+    <cellStyle name="常规 2 3 2 2 2" xfId="418"/>
     <cellStyle name="常规 2 3 2 3" xfId="207"/>
     <cellStyle name="常规 2 3 2 4" xfId="283"/>
     <cellStyle name="常规 2 3 2 5" xfId="371"/>
+    <cellStyle name="常规 2 3 2 5 2" xfId="460"/>
     <cellStyle name="常规 2 3 3" xfId="76"/>
     <cellStyle name="常规 2 3 3 2" xfId="208"/>
     <cellStyle name="常规 2 3 3 3" xfId="284"/>
     <cellStyle name="常规 2 3 3 4" xfId="357"/>
+    <cellStyle name="常规 2 3 3 4 2" xfId="446"/>
     <cellStyle name="常规 2 3 4" xfId="77"/>
     <cellStyle name="常规 2 3 4 2" xfId="209"/>
     <cellStyle name="常规 2 3 4 3" xfId="285"/>
     <cellStyle name="常规 2 3 5" xfId="138"/>
+    <cellStyle name="常规 2 3 5 2" xfId="404"/>
     <cellStyle name="常规 2 3 6" xfId="206"/>
     <cellStyle name="常规 2 3 7" xfId="282"/>
     <cellStyle name="常规 2 3 8" xfId="343"/>
+    <cellStyle name="常规 2 3 8 2" xfId="432"/>
     <cellStyle name="常规 2 4" xfId="385"/>
     <cellStyle name="常规 2 6" xfId="78"/>
     <cellStyle name="常规 2 6 2" xfId="79"/>
@@ -5512,20 +5797,25 @@
     <cellStyle name="注释 2" xfId="94"/>
     <cellStyle name="注释 2 2" xfId="95"/>
     <cellStyle name="注释 2 2 2" xfId="156"/>
+    <cellStyle name="注释 2 2 2 2" xfId="419"/>
     <cellStyle name="注释 2 2 3" xfId="211"/>
     <cellStyle name="注释 2 2 4" xfId="301"/>
     <cellStyle name="注释 2 2 5" xfId="372"/>
+    <cellStyle name="注释 2 2 5 2" xfId="461"/>
     <cellStyle name="注释 2 3" xfId="7"/>
     <cellStyle name="注释 2 3 2" xfId="162"/>
     <cellStyle name="注释 2 3 3" xfId="219"/>
     <cellStyle name="注释 2 3 4" xfId="358"/>
+    <cellStyle name="注释 2 3 4 2" xfId="447"/>
     <cellStyle name="注释 2 4" xfId="96"/>
     <cellStyle name="注释 2 4 2" xfId="212"/>
     <cellStyle name="注释 2 4 3" xfId="302"/>
     <cellStyle name="注释 2 5" xfId="140"/>
+    <cellStyle name="注释 2 5 2" xfId="405"/>
     <cellStyle name="注释 2 6" xfId="210"/>
     <cellStyle name="注释 2 7" xfId="300"/>
     <cellStyle name="注释 2 8" xfId="344"/>
+    <cellStyle name="注释 2 8 2" xfId="433"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5866,7 +6156,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -5879,644 +6169,638 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
     </row>
     <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="41">
+      <c r="A2" s="38">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
     </row>
     <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="41">
+      <c r="A5" s="38">
         <v>1.2</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="42"/>
-      <c r="B7" s="112" t="s">
+      <c r="A7" s="39"/>
+      <c r="B7" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="42"/>
-      <c r="B8" s="116" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="42"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="78" t="s">
+      <c r="D9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="75" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="42"/>
-      <c r="B10" s="128" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="130" t="s">
         <v>248</v>
       </c>
-      <c r="C10" s="77" t="s">
+      <c r="C10" s="74" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D10" s="130" t="s">
         <v>250</v>
       </c>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="74" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="42"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="77" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="129"/>
-      <c r="E11" s="77" t="s">
+      <c r="D11" s="131"/>
+      <c r="E11" s="74" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="42"/>
-      <c r="B12" s="130"/>
-      <c r="C12" s="77" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="130"/>
-      <c r="E12" s="77" t="s">
+      <c r="D12" s="132"/>
+      <c r="E12" s="74" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="42"/>
-      <c r="B13" s="119" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="124" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="77" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="78" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="42"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="80" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="77" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="79"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="42"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="80" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="118"/>
-      <c r="E15" s="79"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="42"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="80" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="118"/>
-      <c r="E16" s="79"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="76"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="42"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="82" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="79" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="83"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="120" t="s">
+      <c r="B18" s="125" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="81" t="s">
+      <c r="C18" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="78" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="121"/>
-      <c r="C19" s="81" t="s">
+      <c r="B19" s="126"/>
+      <c r="C19" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="79"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="121"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="126"/>
+      <c r="C20" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="79"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="76"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="122"/>
-      <c r="C21" s="81" t="s">
+      <c r="B21" s="127"/>
+      <c r="C21" s="78" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="79"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="76"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="79" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="78" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="B23" s="124"/>
-      <c r="C23" s="82" t="s">
+      <c r="B23" s="113"/>
+      <c r="C23" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="81" t="s">
+      <c r="D23" s="110"/>
+      <c r="E23" s="78" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="124"/>
-      <c r="C24" s="84" t="s">
+    <row r="24" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B24" s="113"/>
+      <c r="C24" s="81" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="132"/>
-      <c r="E24" s="79"/>
-    </row>
-    <row r="25" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="124"/>
-      <c r="C25" s="84" t="s">
+      <c r="D24" s="110"/>
+      <c r="E24" s="76"/>
+    </row>
+    <row r="25" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B25" s="113"/>
+      <c r="C25" s="81" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="132"/>
-      <c r="E25" s="79"/>
-    </row>
-    <row r="26" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="124"/>
-      <c r="C26" s="84" t="s">
+      <c r="D25" s="110"/>
+      <c r="E25" s="76"/>
+    </row>
+    <row r="26" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B26" s="113"/>
+      <c r="C26" s="81" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="132"/>
-      <c r="E26" s="79"/>
-    </row>
-    <row r="27" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="124"/>
-      <c r="C27" s="84" t="s">
+      <c r="D26" s="110"/>
+      <c r="E26" s="76"/>
+    </row>
+    <row r="27" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B27" s="113"/>
+      <c r="C27" s="81" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="79"/>
-    </row>
-    <row r="28" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="124"/>
-      <c r="C28" s="84" t="s">
+      <c r="D27" s="110"/>
+      <c r="E27" s="76"/>
+    </row>
+    <row r="28" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B28" s="113"/>
+      <c r="C28" s="81" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="79"/>
-    </row>
-    <row r="29" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="124"/>
-      <c r="C29" s="84" t="s">
+      <c r="D28" s="110"/>
+      <c r="E28" s="76"/>
+    </row>
+    <row r="29" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B29" s="113"/>
+      <c r="C29" s="81" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="79"/>
-    </row>
-    <row r="30" spans="1:5" s="38" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="84" t="s">
+      <c r="D29" s="110"/>
+      <c r="E29" s="76"/>
+    </row>
+    <row r="30" spans="1:5" s="35" customFormat="1" ht="18" customHeight="1">
+      <c r="B30" s="114"/>
+      <c r="C30" s="81" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="133"/>
-      <c r="E30" s="79"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="76"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="123" t="s">
+      <c r="B31" s="112" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="84" t="s">
+      <c r="C31" s="81" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="109" t="s">
         <v>232</v>
       </c>
-      <c r="E31" s="81" t="s">
+      <c r="E31" s="78" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="124"/>
-      <c r="C32" s="84" t="s">
+      <c r="B32" s="113"/>
+      <c r="C32" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="132"/>
-      <c r="E32" s="81" t="s">
+      <c r="D32" s="110"/>
+      <c r="E32" s="78" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="B33" s="125"/>
-      <c r="C33" s="84" t="s">
+      <c r="B33" s="114"/>
+      <c r="C33" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="133"/>
-      <c r="E33" s="79"/>
-    </row>
-    <row r="34" spans="1:5" s="38" customFormat="1">
-      <c r="B34" s="123" t="s">
+      <c r="D33" s="111"/>
+      <c r="E33" s="76"/>
+    </row>
+    <row r="34" spans="1:5" s="35" customFormat="1">
+      <c r="B34" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="C34" s="84" t="s">
+      <c r="C34" s="81" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="131" t="s">
+      <c r="D34" s="109" t="s">
         <v>239</v>
       </c>
-      <c r="E34" s="81" t="s">
+      <c r="E34" s="78" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="124"/>
-      <c r="C35" s="84" t="s">
+      <c r="B35" s="113"/>
+      <c r="C35" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="81" t="s">
+      <c r="D35" s="110"/>
+      <c r="E35" s="78" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="124"/>
-      <c r="C36" s="84" t="s">
+      <c r="B36" s="113"/>
+      <c r="C36" s="81" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="132"/>
-      <c r="E36" s="81" t="s">
+      <c r="D36" s="110"/>
+      <c r="E36" s="78" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="125"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="133"/>
-      <c r="E37" s="81" t="s">
+      <c r="B37" s="114"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="78" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="113" t="s">
+      <c r="B42" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
+      <c r="C42" s="118"/>
+      <c r="D42" s="118"/>
+      <c r="E42" s="118"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="42"/>
-      <c r="B43" s="44" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="115"/>
-      <c r="E43" s="44" t="s">
+      <c r="D43" s="120"/>
+      <c r="E43" s="41" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="27">
-      <c r="A44" s="42"/>
-      <c r="B44" s="45">
+      <c r="A44" s="39"/>
+      <c r="B44" s="42">
         <v>1</v>
       </c>
-      <c r="C44" s="134" t="s">
+      <c r="C44" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="135"/>
-      <c r="E44" s="85" t="s">
+      <c r="D44" s="108"/>
+      <c r="E44" s="82" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="42"/>
-      <c r="B45" s="45">
+      <c r="A45" s="39"/>
+      <c r="B45" s="42">
         <v>2</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="128" t="s">
         <v>258</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="85" t="s">
+      <c r="D45" s="129"/>
+      <c r="E45" s="82" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="42"/>
-      <c r="B46" s="45">
+      <c r="A46" s="39"/>
+      <c r="B46" s="42">
         <v>3</v>
       </c>
-      <c r="C46" s="126" t="s">
+      <c r="C46" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="127"/>
-      <c r="E46" s="85" t="s">
+      <c r="D46" s="129"/>
+      <c r="E46" s="82" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="42"/>
-      <c r="B47" s="46"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
-      <c r="E47" s="49"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
     </row>
     <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="41">
+      <c r="A48" s="38">
         <v>1.3</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="50"/>
-      <c r="B49" s="42" t="s">
+      <c r="A49" s="47"/>
+      <c r="B49" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="51"/>
-      <c r="B50" s="110" t="s">
+      <c r="A50" s="48"/>
+      <c r="B50" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="110"/>
-      <c r="D50" s="110"/>
-      <c r="E50" s="110"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="51"/>
-      <c r="B51" s="52" t="s">
+      <c r="A51" s="48"/>
+      <c r="B51" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="52" t="s">
+      <c r="C51" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="25.5">
-      <c r="A52" s="53"/>
-      <c r="B52" s="71" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="71" t="s">
+      <c r="C52" s="51"/>
+      <c r="D52" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="25.5">
-      <c r="A53" s="53"/>
-      <c r="B53" s="71" t="s">
+      <c r="A53" s="50"/>
+      <c r="B53" s="68" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="71" t="s">
+      <c r="C53" s="51"/>
+      <c r="D53" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="25.5">
-      <c r="A54" s="53"/>
-      <c r="B54" s="71" t="s">
+      <c r="A54" s="50"/>
+      <c r="B54" s="68" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="71" t="s">
+      <c r="C54" s="51"/>
+      <c r="D54" s="68" t="s">
         <v>119</v>
       </c>
-      <c r="E54" s="55">
+      <c r="E54" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="53"/>
-      <c r="B55" s="71" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="68" t="s">
         <v>117</v>
       </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="55">
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="53"/>
-      <c r="B56" s="71" t="s">
+      <c r="A56" s="50"/>
+      <c r="B56" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="55">
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="53"/>
-      <c r="B57" s="71" t="s">
+      <c r="A57" s="50"/>
+      <c r="B57" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="55">
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="53"/>
-      <c r="B58" s="71" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="68" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="55">
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="52">
         <v>43649</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
     </row>
     <row r="60" spans="1:5" ht="15">
-      <c r="A60" s="41">
+      <c r="A60" s="38">
         <v>1.4</v>
       </c>
-      <c r="B60" s="41" t="s">
+      <c r="B60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
     </row>
     <row r="61" spans="1:5" ht="15">
-      <c r="A61" s="50"/>
-      <c r="B61" s="42" t="s">
+      <c r="A61" s="47"/>
+      <c r="B61" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
-      <c r="E61" s="50"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="47"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="56"/>
-      <c r="B62" s="110" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="110"/>
-      <c r="D62" s="110"/>
-      <c r="E62" s="110"/>
+      <c r="C62" s="115"/>
+      <c r="D62" s="115"/>
+      <c r="E62" s="115"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="56"/>
-      <c r="B63" s="52" t="s">
+      <c r="A63" s="53"/>
+      <c r="B63" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="52" t="s">
+      <c r="C63" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="49" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="25.5">
-      <c r="A64" s="53"/>
-      <c r="B64" s="72" t="s">
+      <c r="A64" s="50"/>
+      <c r="B64" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="72" t="s">
+      <c r="D64" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="55">
+      <c r="E64" s="52">
         <v>43649</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D34:D37"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B3:E3"/>
@@ -6533,6 +6817,12 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <phoneticPr fontId="56" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6558,663 +6848,663 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="22.5">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:8" ht="15">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="3" spans="1:8" ht="15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" ht="15">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="24">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="135" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="59"/>
+      <c r="F6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" ht="24">
-      <c r="A7" s="138"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="65" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="64">
         <v>1.8</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="22" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="138"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="65" t="s">
+      <c r="A8" s="135"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="138"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="64" t="s">
+      <c r="A9" s="135"/>
+      <c r="B9" s="138"/>
+      <c r="C9" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="64">
         <v>5.6</v>
       </c>
-      <c r="E9" s="61"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="58"/>
+      <c r="F9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="138"/>
-      <c r="B10" s="63" t="s">
+      <c r="A10" s="135"/>
+      <c r="B10" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="24">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="135" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="23"/>
-      <c r="H11" s="28" t="s">
+      <c r="G11" s="20"/>
+      <c r="H11" s="25" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="24">
-      <c r="A12" s="138"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="26" t="s">
+      <c r="A12" s="135"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="65" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="28" t="s">
+      <c r="G12" s="20"/>
+      <c r="H12" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="24">
-      <c r="A13" s="138"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="26" t="s">
+      <c r="A13" s="135"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="28" t="s">
+      <c r="G13" s="20"/>
+      <c r="H13" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="24">
-      <c r="A14" s="138"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="26" t="s">
+      <c r="A14" s="135"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="70" t="s">
+      <c r="G14" s="20"/>
+      <c r="H14" s="67" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="24">
-      <c r="A15" s="138"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="26" t="s">
+      <c r="A15" s="135"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="28" t="s">
+      <c r="G15" s="20"/>
+      <c r="H15" s="25" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="24">
-      <c r="A16" s="138"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="26" t="s">
+      <c r="A16" s="135"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="28" t="s">
+      <c r="G16" s="20"/>
+      <c r="H16" s="25" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="138"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="26" t="s">
+      <c r="A17" s="135"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="27" t="s">
+      <c r="D17" s="19"/>
+      <c r="E17" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="28" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" ht="15">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" ht="15">
-      <c r="A20" s="142" t="s">
+      <c r="A20" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="142"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="142"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="139"/>
+      <c r="D20" s="139"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
     </row>
     <row r="21" spans="1:8" ht="15">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" ht="15">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="15">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
     </row>
     <row r="25" spans="1:8" ht="15">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="15">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:8" ht="15">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
     </row>
     <row r="28" spans="1:8" ht="15">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
     </row>
     <row r="29" spans="1:8" ht="15">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:8" ht="15">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:8" ht="15">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="143"/>
-      <c r="C33" s="143"/>
-      <c r="D33" s="143"/>
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="31"/>
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="28"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="133" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="136"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="137"/>
-      <c r="F34" s="137"/>
-      <c r="G34" s="137"/>
-      <c r="H34" s="31"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="136" t="s">
+      <c r="A35" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="136"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="31"/>
+      <c r="B35" s="133"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="136"/>
-      <c r="C36" s="137"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="137"/>
-      <c r="F36" s="137"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="31"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="B37" s="136"/>
-      <c r="C37" s="137"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="137"/>
-      <c r="F37" s="137"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="31"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="136" t="s">
+      <c r="A38" s="133" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="136"/>
-      <c r="C38" s="137"/>
-      <c r="D38" s="137"/>
-      <c r="E38" s="137"/>
-      <c r="F38" s="137"/>
-      <c r="G38" s="137"/>
-      <c r="H38" s="31"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="137"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="31"/>
+      <c r="A39" s="134"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28"/>
     </row>
     <row r="40" spans="1:8" ht="15">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
     </row>
     <row r="41" spans="1:8" ht="15">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="17"/>
+      <c r="C42" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H42" s="17"/>
+      <c r="H42" s="14"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="35" t="s">
+      <c r="B43" s="20"/>
+      <c r="C43" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="36" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="17"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="14"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="23"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="17"/>
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="14"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="23"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="17"/>
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="23"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="17"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="14"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="23"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="17"/>
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="14"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="17"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="14"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="23"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="17"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7247,3400 +7537,3400 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="48.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="11" customWidth="1"/>
-    <col min="5" max="5" width="9" style="12"/>
-    <col min="6" max="6" width="32.375" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="12.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="48.75" style="9" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9"/>
+    <col min="6" max="6" width="32.375" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="148" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="149" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="145"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="151" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:8" s="8" customFormat="1" ht="42" customHeight="1">
+      <c r="A3" s="155" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1">
-      <c r="A4" s="15" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+    </row>
+    <row r="4" spans="1:8" s="8" customFormat="1">
+      <c r="A4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="86" t="s">
+      <c r="F4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="83" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.75">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="73" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C5" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="152" t="s">
         <v>218</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H5" s="91" t="s">
+      <c r="G5" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H5" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75">
-      <c r="A6" s="157"/>
-      <c r="B6" s="75" t="s">
+      <c r="A6" s="158"/>
+      <c r="B6" s="72" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="74" t="s">
+      <c r="C6" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="149"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="153"/>
+      <c r="F6" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H6" s="91" t="s">
+      <c r="G6" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H6" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.75">
-      <c r="A7" s="157"/>
-      <c r="B7" s="75" t="s">
+      <c r="A7" s="158"/>
+      <c r="B7" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="149"/>
-      <c r="F7" s="88" t="s">
+      <c r="E7" s="153"/>
+      <c r="F7" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="G7" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="91" t="s">
+      <c r="G7" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="41.25">
-      <c r="A8" s="157"/>
-      <c r="B8" s="75" t="s">
+      <c r="A8" s="158"/>
+      <c r="B8" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="149"/>
-      <c r="F8" s="88" t="s">
+      <c r="E8" s="153"/>
+      <c r="F8" s="85" t="s">
         <v>265</v>
       </c>
-      <c r="G8" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H8" s="91" t="s">
+      <c r="G8" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="41.25">
-      <c r="A9" s="157"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="73" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="149"/>
-      <c r="F9" s="88" t="s">
+      <c r="E9" s="153"/>
+      <c r="F9" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="G9" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H9" s="91" t="s">
+      <c r="G9" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="54.75">
-      <c r="A10" s="157"/>
-      <c r="B10" s="76" t="s">
+      <c r="A10" s="158"/>
+      <c r="B10" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="C10" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="149"/>
-      <c r="F10" s="88" t="s">
+      <c r="E10" s="153"/>
+      <c r="F10" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="G10" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H10" s="91" t="s">
+      <c r="G10" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.75">
-      <c r="A11" s="157"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="158"/>
+      <c r="B11" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="74" t="s">
+      <c r="C11" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="149"/>
-      <c r="F11" s="88" t="s">
+      <c r="E11" s="153"/>
+      <c r="F11" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="G11" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H11" s="91" t="s">
+      <c r="G11" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.75">
-      <c r="A12" s="157"/>
-      <c r="B12" s="76" t="s">
+      <c r="A12" s="158"/>
+      <c r="B12" s="73" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="88" t="s">
+      <c r="E12" s="153"/>
+      <c r="F12" s="85" t="s">
         <v>269</v>
       </c>
-      <c r="G12" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H12" s="91" t="s">
+      <c r="G12" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H12" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.25">
-      <c r="A13" s="157"/>
-      <c r="B13" s="75" t="s">
+      <c r="A13" s="158"/>
+      <c r="B13" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="74" t="s">
+      <c r="C13" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="88" t="s">
+      <c r="E13" s="153"/>
+      <c r="F13" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="G13" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H13" s="91" t="s">
+      <c r="G13" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H13" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="54.75">
-      <c r="A14" s="157"/>
-      <c r="B14" s="75" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="88" t="s">
+      <c r="E14" s="153"/>
+      <c r="F14" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="G14" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H14" s="91" t="s">
+      <c r="G14" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H14" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="67.5">
-      <c r="A15" s="157"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="158"/>
+      <c r="B15" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="149"/>
-      <c r="F15" s="88" t="s">
+      <c r="E15" s="153"/>
+      <c r="F15" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H15" s="91" t="s">
+      <c r="G15" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H15" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="54.75">
-      <c r="A16" s="157"/>
-      <c r="B16" s="75" t="s">
+      <c r="A16" s="158"/>
+      <c r="B16" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D16" s="74" t="s">
+      <c r="D16" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="149"/>
-      <c r="F16" s="88" t="s">
+      <c r="E16" s="153"/>
+      <c r="F16" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H16" s="91" t="s">
+      <c r="G16" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.25">
-      <c r="A17" s="157"/>
-      <c r="B17" s="75" t="s">
+      <c r="A17" s="158"/>
+      <c r="B17" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="74" t="s">
+      <c r="C17" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="74" t="s">
+      <c r="D17" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="149"/>
-      <c r="F17" s="88" t="s">
+      <c r="E17" s="153"/>
+      <c r="F17" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="G17" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="91" t="s">
+      <c r="G17" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="41.25">
-      <c r="A18" s="157"/>
-      <c r="B18" s="75" t="s">
+      <c r="A18" s="158"/>
+      <c r="B18" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="149"/>
-      <c r="F18" s="88" t="s">
+      <c r="E18" s="153"/>
+      <c r="F18" s="85" t="s">
         <v>275</v>
       </c>
-      <c r="G18" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H18" s="91" t="s">
+      <c r="G18" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.75">
-      <c r="A19" s="157"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="158"/>
+      <c r="B19" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D19" s="74" t="s">
+      <c r="D19" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="149"/>
-      <c r="F19" s="88" t="s">
+      <c r="E19" s="153"/>
+      <c r="F19" s="85" t="s">
         <v>276</v>
       </c>
-      <c r="G19" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H19" s="91" t="s">
+      <c r="G19" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H19" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.25">
-      <c r="A20" s="157"/>
-      <c r="B20" s="75" t="s">
+      <c r="A20" s="158"/>
+      <c r="B20" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="74" t="s">
+      <c r="D20" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="149"/>
-      <c r="F20" s="88" t="s">
+      <c r="E20" s="153"/>
+      <c r="F20" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="G20" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H20" s="91" t="s">
+      <c r="G20" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H20" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="41.25">
-      <c r="A21" s="157"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="158"/>
+      <c r="B21" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D21" s="74" t="s">
+      <c r="D21" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="88" t="s">
+      <c r="E21" s="153"/>
+      <c r="F21" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="G21" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H21" s="91" t="s">
+      <c r="G21" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H21" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75">
-      <c r="A22" s="157"/>
-      <c r="B22" s="75" t="s">
+      <c r="A22" s="158"/>
+      <c r="B22" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D22" s="74" t="s">
+      <c r="D22" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="88" t="s">
+      <c r="E22" s="153"/>
+      <c r="F22" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="G22" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H22" s="91" t="s">
+      <c r="G22" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H22" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="27.75">
-      <c r="A23" s="157"/>
-      <c r="B23" s="75" t="s">
+      <c r="A23" s="158"/>
+      <c r="B23" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="149"/>
-      <c r="F23" s="88" t="s">
+      <c r="E23" s="153"/>
+      <c r="F23" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="G23" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H23" s="91" t="s">
+      <c r="G23" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H23" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.75">
-      <c r="A24" s="157"/>
-      <c r="B24" s="75" t="s">
+      <c r="A24" s="158"/>
+      <c r="B24" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="74" t="s">
+      <c r="D24" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="149"/>
-      <c r="F24" s="88" t="s">
+      <c r="E24" s="153"/>
+      <c r="F24" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="G24" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H24" s="91" t="s">
+      <c r="G24" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H24" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75">
-      <c r="A25" s="157"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="158"/>
+      <c r="B25" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="74" t="s">
+      <c r="D25" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="88" t="s">
+      <c r="E25" s="153"/>
+      <c r="F25" s="85" t="s">
         <v>282</v>
       </c>
-      <c r="G25" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H25" s="91" t="s">
+      <c r="G25" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H25" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27.75">
-      <c r="A26" s="157"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="158"/>
+      <c r="B26" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D26" s="74" t="s">
+      <c r="D26" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="88" t="s">
+      <c r="E26" s="153"/>
+      <c r="F26" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="G26" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H26" s="91" t="s">
+      <c r="G26" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H26" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="41.25">
-      <c r="A27" s="157"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="158"/>
+      <c r="B27" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D27" s="74" t="s">
+      <c r="D27" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="88" t="s">
+      <c r="E27" s="153"/>
+      <c r="F27" s="85" t="s">
         <v>284</v>
       </c>
-      <c r="G27" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H27" s="91" t="s">
+      <c r="G27" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="27.75">
-      <c r="A28" s="157"/>
-      <c r="B28" s="75" t="s">
+      <c r="A28" s="158"/>
+      <c r="B28" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D28" s="74" t="s">
+      <c r="D28" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="88" t="s">
+      <c r="E28" s="153"/>
+      <c r="F28" s="85" t="s">
         <v>285</v>
       </c>
-      <c r="G28" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H28" s="91" t="s">
+      <c r="G28" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="27.75">
-      <c r="A29" s="157"/>
-      <c r="B29" s="75" t="s">
+      <c r="A29" s="158"/>
+      <c r="B29" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D29" s="74" t="s">
+      <c r="D29" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="88" t="s">
+      <c r="E29" s="153"/>
+      <c r="F29" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="G29" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H29" s="91" t="s">
+      <c r="G29" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H29" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="27.75">
-      <c r="A30" s="157"/>
-      <c r="B30" s="75" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D30" s="74" t="s">
+      <c r="D30" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="88" t="s">
+      <c r="E30" s="153"/>
+      <c r="F30" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="G30" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H30" s="91" t="s">
+      <c r="G30" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H30" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.75">
-      <c r="A31" s="157"/>
-      <c r="B31" s="75" t="s">
+      <c r="A31" s="158"/>
+      <c r="B31" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D31" s="74" t="s">
+      <c r="D31" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="88" t="s">
+      <c r="E31" s="153"/>
+      <c r="F31" s="85" t="s">
         <v>288</v>
       </c>
-      <c r="G31" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H31" s="91" t="s">
+      <c r="G31" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H31" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="41.25">
-      <c r="A32" s="157"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="158"/>
+      <c r="B32" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="88" t="s">
+      <c r="E32" s="153"/>
+      <c r="F32" s="85" t="s">
         <v>289</v>
       </c>
-      <c r="G32" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H32" s="91" t="s">
+      <c r="G32" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H32" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="54.75">
-      <c r="A33" s="157"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="158"/>
+      <c r="B33" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D33" s="74" t="s">
+      <c r="D33" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="88" t="s">
+      <c r="E33" s="153"/>
+      <c r="F33" s="85" t="s">
         <v>290</v>
       </c>
-      <c r="G33" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H33" s="91" t="s">
+      <c r="G33" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H33" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.75">
-      <c r="A34" s="157"/>
-      <c r="B34" s="75" t="s">
+      <c r="A34" s="158"/>
+      <c r="B34" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="74" t="s">
+      <c r="D34" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="149"/>
-      <c r="F34" s="88" t="s">
+      <c r="E34" s="153"/>
+      <c r="F34" s="85" t="s">
         <v>291</v>
       </c>
-      <c r="G34" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H34" s="91" t="s">
+      <c r="G34" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="41.25">
-      <c r="A35" s="157"/>
-      <c r="B35" s="75" t="s">
+      <c r="A35" s="158"/>
+      <c r="B35" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="74" t="s">
+      <c r="C35" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="149"/>
-      <c r="F35" s="88" t="s">
+      <c r="E35" s="153"/>
+      <c r="F35" s="85" t="s">
         <v>292</v>
       </c>
-      <c r="G35" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H35" s="91" t="s">
+      <c r="G35" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="54.75">
-      <c r="A36" s="157"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="158"/>
+      <c r="B36" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="74" t="s">
+      <c r="C36" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="149"/>
-      <c r="F36" s="88" t="s">
+      <c r="E36" s="153"/>
+      <c r="F36" s="85" t="s">
         <v>293</v>
       </c>
-      <c r="G36" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" s="91" t="s">
+      <c r="G36" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H36" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27.75">
-      <c r="A37" s="157"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="158"/>
+      <c r="B37" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="74" t="s">
+      <c r="C37" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="74" t="s">
+      <c r="D37" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="149"/>
-      <c r="F37" s="88" t="s">
+      <c r="E37" s="153"/>
+      <c r="F37" s="85" t="s">
         <v>294</v>
       </c>
-      <c r="G37" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H37" s="91" t="s">
+      <c r="G37" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="157"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="158"/>
+      <c r="B38" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="74" t="s">
+      <c r="C38" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="74" t="s">
+      <c r="D38" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="149"/>
-      <c r="F38" s="88" t="s">
+      <c r="E38" s="153"/>
+      <c r="F38" s="85" t="s">
         <v>295</v>
       </c>
-      <c r="G38" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" s="91" t="s">
+      <c r="G38" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="27.75">
-      <c r="A39" s="157"/>
-      <c r="B39" s="75" t="s">
+      <c r="A39" s="158"/>
+      <c r="B39" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="74" t="s">
+      <c r="C39" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="74" t="s">
+      <c r="D39" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="149"/>
-      <c r="F39" s="88" t="s">
+      <c r="E39" s="153"/>
+      <c r="F39" s="85" t="s">
         <v>296</v>
       </c>
-      <c r="G39" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H39" s="91" t="s">
+      <c r="G39" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H39" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="41.25">
-      <c r="A40" s="157"/>
-      <c r="B40" s="75" t="s">
+      <c r="A40" s="158"/>
+      <c r="B40" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D40" s="74" t="s">
+      <c r="D40" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="149"/>
-      <c r="F40" s="88" t="s">
+      <c r="E40" s="153"/>
+      <c r="F40" s="85" t="s">
         <v>297</v>
       </c>
-      <c r="G40" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H40" s="91" t="s">
+      <c r="G40" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="27.75">
-      <c r="A41" s="157"/>
-      <c r="B41" s="75" t="s">
+      <c r="A41" s="158"/>
+      <c r="B41" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="D41" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="149"/>
-      <c r="F41" s="88" t="s">
+      <c r="E41" s="153"/>
+      <c r="F41" s="85" t="s">
         <v>298</v>
       </c>
-      <c r="G41" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="91" t="s">
+      <c r="G41" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="27.75">
-      <c r="A42" s="157"/>
-      <c r="B42" s="75" t="s">
+      <c r="A42" s="158"/>
+      <c r="B42" s="72" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="74" t="s">
+      <c r="C42" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D42" s="74" t="s">
+      <c r="D42" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="149"/>
-      <c r="F42" s="88" t="s">
+      <c r="E42" s="153"/>
+      <c r="F42" s="85" t="s">
         <v>299</v>
       </c>
-      <c r="G42" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H42" s="91" t="s">
+      <c r="G42" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="40.5">
-      <c r="A43" s="157"/>
-      <c r="B43" s="75" t="s">
+      <c r="A43" s="158"/>
+      <c r="B43" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D43" s="74" t="s">
+      <c r="D43" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="149"/>
-      <c r="F43" s="88" t="s">
+      <c r="E43" s="153"/>
+      <c r="F43" s="85" t="s">
         <v>300</v>
       </c>
-      <c r="G43" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H43" s="91" t="s">
+      <c r="G43" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H43" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="40.5">
-      <c r="A44" s="157"/>
-      <c r="B44" s="75" t="s">
+      <c r="A44" s="158"/>
+      <c r="B44" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D44" s="74" t="s">
+      <c r="D44" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="149"/>
-      <c r="F44" s="88" t="s">
+      <c r="E44" s="153"/>
+      <c r="F44" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="G44" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" s="91" t="s">
+      <c r="G44" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="40.5">
-      <c r="A45" s="157"/>
-      <c r="B45" s="75" t="s">
+      <c r="A45" s="158"/>
+      <c r="B45" s="72" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="74" t="s">
+      <c r="C45" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D45" s="74" t="s">
+      <c r="D45" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="149"/>
-      <c r="F45" s="88" t="s">
+      <c r="E45" s="153"/>
+      <c r="F45" s="85" t="s">
         <v>302</v>
       </c>
-      <c r="G45" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H45" s="91" t="s">
+      <c r="G45" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="40.5">
-      <c r="A46" s="157"/>
-      <c r="B46" s="75" t="s">
+      <c r="A46" s="158"/>
+      <c r="B46" s="72" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="74" t="s">
+      <c r="C46" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D46" s="74" t="s">
+      <c r="D46" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E46" s="149"/>
-      <c r="F46" s="88" t="s">
+      <c r="E46" s="153"/>
+      <c r="F46" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="G46" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H46" s="91" t="s">
+      <c r="G46" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="40.5">
-      <c r="A47" s="157"/>
-      <c r="B47" s="75" t="s">
+      <c r="A47" s="158"/>
+      <c r="B47" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="74" t="s">
+      <c r="C47" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D47" s="74" t="s">
+      <c r="D47" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="149"/>
-      <c r="F47" s="88" t="s">
+      <c r="E47" s="153"/>
+      <c r="F47" s="85" t="s">
         <v>304</v>
       </c>
-      <c r="G47" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H47" s="91" t="s">
+      <c r="G47" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="41.25">
-      <c r="A48" s="157"/>
-      <c r="B48" s="75" t="s">
+      <c r="A48" s="158"/>
+      <c r="B48" s="72" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="74" t="s">
+      <c r="C48" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="74" t="s">
+      <c r="D48" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="149"/>
-      <c r="F48" s="88" t="s">
+      <c r="E48" s="153"/>
+      <c r="F48" s="85" t="s">
         <v>305</v>
       </c>
-      <c r="G48" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H48" s="91" t="s">
+      <c r="G48" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="54.75">
-      <c r="A49" s="157"/>
-      <c r="B49" s="75" t="s">
+      <c r="A49" s="158"/>
+      <c r="B49" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D49" s="74" t="s">
+      <c r="D49" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E49" s="149"/>
-      <c r="F49" s="88" t="s">
+      <c r="E49" s="153"/>
+      <c r="F49" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="G49" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H49" s="91" t="s">
+      <c r="G49" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="41.25">
-      <c r="A50" s="157"/>
-      <c r="B50" s="75" t="s">
+      <c r="A50" s="158"/>
+      <c r="B50" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="149"/>
-      <c r="F50" s="88" t="s">
+      <c r="E50" s="153"/>
+      <c r="F50" s="85" t="s">
         <v>307</v>
       </c>
-      <c r="G50" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H50" s="91" t="s">
+      <c r="G50" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H50" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="41.25">
-      <c r="A51" s="157"/>
-      <c r="B51" s="75" t="s">
+      <c r="A51" s="158"/>
+      <c r="B51" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="74" t="s">
+      <c r="D51" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="149"/>
-      <c r="F51" s="88" t="s">
+      <c r="E51" s="153"/>
+      <c r="F51" s="85" t="s">
         <v>308</v>
       </c>
-      <c r="G51" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H51" s="91" t="s">
+      <c r="G51" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="54">
-      <c r="A52" s="157"/>
-      <c r="B52" s="75" t="s">
+      <c r="A52" s="158"/>
+      <c r="B52" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E52" s="149"/>
-      <c r="F52" s="89" t="s">
+      <c r="E52" s="153"/>
+      <c r="F52" s="86" t="s">
         <v>309</v>
       </c>
-      <c r="G52" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H52" s="91" t="s">
+      <c r="G52" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="40.5">
-      <c r="A53" s="157"/>
-      <c r="B53" s="75" t="s">
+      <c r="A53" s="158"/>
+      <c r="B53" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="74" t="s">
+      <c r="D53" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="149"/>
-      <c r="F53" s="88" t="s">
+      <c r="E53" s="153"/>
+      <c r="F53" s="85" t="s">
         <v>310</v>
       </c>
-      <c r="G53" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H53" s="91" t="s">
+      <c r="G53" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="27.75">
-      <c r="A54" s="157"/>
-      <c r="B54" s="75" t="s">
+      <c r="A54" s="158"/>
+      <c r="B54" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="149"/>
-      <c r="F54" s="88" t="s">
+      <c r="E54" s="153"/>
+      <c r="F54" s="85" t="s">
         <v>311</v>
       </c>
-      <c r="G54" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H54" s="91" t="s">
+      <c r="G54" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H54" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="27.75">
-      <c r="A55" s="157"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="158"/>
+      <c r="B55" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D55" s="74" t="s">
+      <c r="D55" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="149"/>
-      <c r="F55" s="88" t="s">
+      <c r="E55" s="153"/>
+      <c r="F55" s="85" t="s">
         <v>312</v>
       </c>
-      <c r="G55" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H55" s="91" t="s">
+      <c r="G55" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="27.75">
-      <c r="A56" s="157"/>
-      <c r="B56" s="75" t="s">
+      <c r="A56" s="158"/>
+      <c r="B56" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D56" s="74" t="s">
+      <c r="D56" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E56" s="149"/>
-      <c r="F56" s="88" t="s">
+      <c r="E56" s="153"/>
+      <c r="F56" s="85" t="s">
         <v>313</v>
       </c>
-      <c r="G56" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H56" s="91" t="s">
+      <c r="G56" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="40.5">
-      <c r="A57" s="157"/>
-      <c r="B57" s="75" t="s">
+      <c r="A57" s="158"/>
+      <c r="B57" s="72" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D57" s="74" t="s">
+      <c r="D57" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="149"/>
-      <c r="F57" s="88" t="s">
+      <c r="E57" s="153"/>
+      <c r="F57" s="85" t="s">
         <v>314</v>
       </c>
-      <c r="G57" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H57" s="91" t="s">
+      <c r="G57" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="27.75">
-      <c r="A58" s="157"/>
-      <c r="B58" s="75" t="s">
+      <c r="A58" s="158"/>
+      <c r="B58" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="74" t="s">
+      <c r="C58" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D58" s="74" t="s">
+      <c r="D58" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E58" s="149"/>
-      <c r="F58" s="88" t="s">
+      <c r="E58" s="153"/>
+      <c r="F58" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="G58" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H58" s="91" t="s">
+      <c r="G58" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H58" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="54.75">
-      <c r="A59" s="157"/>
-      <c r="B59" s="75" t="s">
+      <c r="A59" s="158"/>
+      <c r="B59" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="74" t="s">
+      <c r="C59" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D59" s="74" t="s">
+      <c r="D59" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="149"/>
-      <c r="F59" s="88" t="s">
+      <c r="E59" s="153"/>
+      <c r="F59" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="G59" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H59" s="91" t="s">
+      <c r="G59" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="27.75">
-      <c r="A60" s="157"/>
-      <c r="B60" s="75" t="s">
+      <c r="A60" s="158"/>
+      <c r="B60" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="74" t="s">
+      <c r="C60" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D60" s="74" t="s">
+      <c r="D60" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E60" s="149"/>
-      <c r="F60" s="88" t="s">
+      <c r="E60" s="153"/>
+      <c r="F60" s="85" t="s">
         <v>317</v>
       </c>
-      <c r="G60" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H60" s="91" t="s">
+      <c r="G60" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="41.25">
-      <c r="A61" s="157"/>
-      <c r="B61" s="75" t="s">
+      <c r="A61" s="158"/>
+      <c r="B61" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="74" t="s">
+      <c r="C61" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="149"/>
-      <c r="F61" s="88" t="s">
+      <c r="E61" s="153"/>
+      <c r="F61" s="85" t="s">
         <v>318</v>
       </c>
-      <c r="G61" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H61" s="91" t="s">
+      <c r="G61" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H61" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="54.75">
-      <c r="A62" s="157"/>
-      <c r="B62" s="75" t="s">
+      <c r="A62" s="158"/>
+      <c r="B62" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="74" t="s">
+      <c r="C62" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D62" s="74" t="s">
+      <c r="D62" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="149"/>
-      <c r="F62" s="88" t="s">
+      <c r="E62" s="153"/>
+      <c r="F62" s="85" t="s">
         <v>319</v>
       </c>
-      <c r="G62" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H62" s="91" t="s">
+      <c r="G62" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="40.5">
-      <c r="A63" s="157"/>
-      <c r="B63" s="75" t="s">
+      <c r="A63" s="158"/>
+      <c r="B63" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="74" t="s">
+      <c r="C63" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="74" t="s">
+      <c r="D63" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="149"/>
-      <c r="F63" s="88" t="s">
+      <c r="E63" s="153"/>
+      <c r="F63" s="85" t="s">
         <v>320</v>
       </c>
-      <c r="G63" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H63" s="91" t="s">
+      <c r="G63" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H63" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="27.75">
-      <c r="A64" s="157"/>
-      <c r="B64" s="75" t="s">
+      <c r="A64" s="158"/>
+      <c r="B64" s="72" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="74" t="s">
+      <c r="C64" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="149"/>
-      <c r="F64" s="88" t="s">
+      <c r="E64" s="153"/>
+      <c r="F64" s="85" t="s">
         <v>321</v>
       </c>
-      <c r="G64" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H64" s="91" t="s">
+      <c r="G64" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H64" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="41.25">
-      <c r="A65" s="156" t="s">
+      <c r="A65" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="B65" s="75" t="s">
+      <c r="B65" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="74" t="s">
+      <c r="C65" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="74" t="s">
+      <c r="D65" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="149"/>
-      <c r="F65" s="88" t="s">
+      <c r="E65" s="153"/>
+      <c r="F65" s="85" t="s">
         <v>322</v>
       </c>
-      <c r="G65" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H65" s="91" t="s">
+      <c r="G65" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="27.75">
-      <c r="A66" s="156"/>
-      <c r="B66" s="75" t="s">
+      <c r="A66" s="157"/>
+      <c r="B66" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D66" s="74" t="s">
+      <c r="D66" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="149"/>
-      <c r="F66" s="88" t="s">
+      <c r="E66" s="153"/>
+      <c r="F66" s="85" t="s">
         <v>323</v>
       </c>
-      <c r="G66" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H66" s="91" t="s">
+      <c r="G66" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H66" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="27.75">
-      <c r="A67" s="156"/>
-      <c r="B67" s="75" t="s">
+      <c r="A67" s="157"/>
+      <c r="B67" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="74" t="s">
+      <c r="C67" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="74" t="s">
+      <c r="D67" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="149"/>
-      <c r="F67" s="88" t="s">
+      <c r="E67" s="153"/>
+      <c r="F67" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="G67" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H67" s="91" t="s">
+      <c r="G67" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="27">
-      <c r="A68" s="156"/>
-      <c r="B68" s="75" t="s">
+      <c r="A68" s="157"/>
+      <c r="B68" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D68" s="74" t="s">
+      <c r="D68" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="149"/>
-      <c r="F68" s="89" t="s">
+      <c r="E68" s="153"/>
+      <c r="F68" s="86" t="s">
         <v>325</v>
       </c>
-      <c r="G68" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H68" s="91" t="s">
+      <c r="G68" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="27">
-      <c r="A69" s="156"/>
-      <c r="B69" s="75" t="s">
+      <c r="A69" s="157"/>
+      <c r="B69" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="74" t="s">
+      <c r="C69" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D69" s="74" t="s">
+      <c r="D69" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="149"/>
-      <c r="F69" s="89" t="s">
+      <c r="E69" s="153"/>
+      <c r="F69" s="86" t="s">
         <v>326</v>
       </c>
-      <c r="G69" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H69" s="91" t="s">
+      <c r="G69" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="27.75">
-      <c r="A70" s="156"/>
-      <c r="B70" s="75" t="s">
+      <c r="A70" s="157"/>
+      <c r="B70" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="74" t="s">
+      <c r="C70" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D70" s="74" t="s">
+      <c r="D70" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="E70" s="149"/>
-      <c r="F70" s="88" t="s">
+      <c r="E70" s="153"/>
+      <c r="F70" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="G70" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H70" s="91" t="s">
+      <c r="G70" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="27.75">
-      <c r="A71" s="156"/>
-      <c r="B71" s="75" t="s">
+      <c r="A71" s="157"/>
+      <c r="B71" s="72" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="D71" s="74" t="s">
+      <c r="D71" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="149"/>
-      <c r="F71" s="88" t="s">
+      <c r="E71" s="153"/>
+      <c r="F71" s="85" t="s">
         <v>328</v>
       </c>
-      <c r="G71" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H71" s="91" t="s">
+      <c r="G71" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="41.25">
-      <c r="A72" s="96" t="s">
+      <c r="A72" s="93" t="s">
         <v>350</v>
       </c>
-      <c r="B72" s="97" t="s">
+      <c r="B72" s="94" t="s">
         <v>351</v>
       </c>
-      <c r="C72" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D72" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E72" s="149"/>
-      <c r="F72" s="88" t="s">
+      <c r="C72" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="153"/>
+      <c r="F72" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="G72" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H72" s="91" t="s">
+      <c r="G72" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="27.75">
-      <c r="A73" s="101"/>
-      <c r="B73" s="97" t="s">
+      <c r="A73" s="98"/>
+      <c r="B73" s="94" t="s">
         <v>352</v>
       </c>
-      <c r="C73" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="149"/>
-      <c r="F73" s="88" t="s">
+      <c r="C73" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="153"/>
+      <c r="F73" s="85" t="s">
         <v>330</v>
       </c>
-      <c r="G73" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H73" s="91" t="s">
+      <c r="G73" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H73" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="54.75">
-      <c r="A74" s="102"/>
-      <c r="B74" s="97" t="s">
+      <c r="A74" s="99"/>
+      <c r="B74" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="C74" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D74" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="149"/>
-      <c r="F74" s="88" t="s">
+      <c r="C74" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E74" s="153"/>
+      <c r="F74" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="G74" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H74" s="91" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="11" customFormat="1" ht="41.25">
-      <c r="A75" s="96" t="s">
+      <c r="G74" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H74" s="88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="8" customFormat="1" ht="41.25">
+      <c r="A75" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="B75" s="99" t="s">
+      <c r="B75" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="C75" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D75" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E75" s="149"/>
-      <c r="F75" s="88" t="s">
+      <c r="C75" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E75" s="153"/>
+      <c r="F75" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="G75" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H75" s="91" t="s">
+      <c r="G75" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H75" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="25.5">
-      <c r="A76" s="102"/>
-      <c r="B76" s="99" t="s">
+      <c r="A76" s="99"/>
+      <c r="B76" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C76" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D76" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E76" s="149"/>
-      <c r="F76" s="90" t="s">
+      <c r="C76" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E76" s="153"/>
+      <c r="F76" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="G76" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H76" s="91" t="s">
+      <c r="G76" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H76" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="27.75">
-      <c r="A77" s="96" t="s">
+      <c r="A77" s="93" t="s">
         <v>356</v>
       </c>
-      <c r="B77" s="99" t="s">
+      <c r="B77" s="96" t="s">
         <v>357</v>
       </c>
-      <c r="C77" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D77" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E77" s="149"/>
-      <c r="F77" s="88" t="s">
+      <c r="C77" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="153"/>
+      <c r="F77" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="G77" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H77" s="91" t="s">
+      <c r="G77" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H77" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="38.25">
-      <c r="A78" s="101"/>
-      <c r="B78" s="99" t="s">
+      <c r="A78" s="98"/>
+      <c r="B78" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="C78" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E78" s="149"/>
-      <c r="F78" s="90" t="s">
+      <c r="C78" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="153"/>
+      <c r="F78" s="87" t="s">
         <v>335</v>
       </c>
-      <c r="G78" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H78" s="91" t="s">
+      <c r="G78" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H78" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="27">
-      <c r="A79" s="102"/>
-      <c r="B79" s="99" t="s">
+      <c r="A79" s="99"/>
+      <c r="B79" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="C79" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D79" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E79" s="149"/>
-      <c r="F79" s="89" t="s">
+      <c r="C79" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E79" s="153"/>
+      <c r="F79" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="G79" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H79" s="91" t="s">
+      <c r="G79" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:8">
-      <c r="A80" s="96" t="s">
+      <c r="A80" s="93" t="s">
         <v>359</v>
       </c>
-      <c r="B80" s="97" t="s">
+      <c r="B80" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="C80" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D80" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E80" s="149"/>
-      <c r="F80" s="89" t="s">
+      <c r="C80" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E80" s="153"/>
+      <c r="F80" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="G80" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H80" s="91" t="s">
+      <c r="G80" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H80" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="101"/>
-      <c r="B81" s="97" t="s">
+      <c r="A81" s="98"/>
+      <c r="B81" s="94" t="s">
         <v>361</v>
       </c>
-      <c r="C81" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E81" s="149"/>
-      <c r="F81" s="89" t="s">
+      <c r="C81" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E81" s="153"/>
+      <c r="F81" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="G81" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H81" s="91" t="s">
+      <c r="G81" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H81" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="27">
-      <c r="A82" s="101"/>
-      <c r="B82" s="97" t="s">
+      <c r="A82" s="98"/>
+      <c r="B82" s="94" t="s">
         <v>362</v>
       </c>
-      <c r="C82" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D82" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E82" s="149"/>
-      <c r="F82" s="89" t="s">
+      <c r="C82" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E82" s="153"/>
+      <c r="F82" s="86" t="s">
         <v>339</v>
       </c>
-      <c r="G82" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H82" s="91" t="s">
+      <c r="G82" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H82" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="27">
-      <c r="A83" s="101"/>
-      <c r="B83" s="97" t="s">
+      <c r="A83" s="98"/>
+      <c r="B83" s="94" t="s">
         <v>363</v>
       </c>
-      <c r="C83" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D83" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E83" s="149"/>
-      <c r="F83" s="89" t="s">
+      <c r="C83" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" s="153"/>
+      <c r="F83" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="G83" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H83" s="91" t="s">
+      <c r="G83" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="27">
-      <c r="A84" s="101"/>
-      <c r="B84" s="97" t="s">
+      <c r="A84" s="98"/>
+      <c r="B84" s="94" t="s">
         <v>364</v>
       </c>
-      <c r="C84" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D84" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E84" s="149"/>
-      <c r="F84" s="89" t="s">
+      <c r="C84" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E84" s="153"/>
+      <c r="F84" s="86" t="s">
         <v>341</v>
       </c>
-      <c r="G84" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H84" s="91" t="s">
+      <c r="G84" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="40.5">
-      <c r="A85" s="102"/>
-      <c r="B85" s="97" t="s">
+      <c r="A85" s="99"/>
+      <c r="B85" s="94" t="s">
         <v>365</v>
       </c>
-      <c r="C85" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D85" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E85" s="149"/>
-      <c r="F85" s="89" t="s">
+      <c r="C85" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E85" s="153"/>
+      <c r="F85" s="86" t="s">
         <v>342</v>
       </c>
-      <c r="G85" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H85" s="91" t="s">
+      <c r="G85" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H85" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="27">
-      <c r="A86" s="96" t="s">
+      <c r="A86" s="93" t="s">
         <v>366</v>
       </c>
-      <c r="B86" s="97" t="s">
+      <c r="B86" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="C86" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D86" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E86" s="149"/>
-      <c r="F86" s="89" t="s">
+      <c r="C86" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E86" s="153"/>
+      <c r="F86" s="86" t="s">
         <v>343</v>
       </c>
-      <c r="G86" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H86" s="91" t="s">
+      <c r="G86" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H86" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="27">
-      <c r="A87" s="102"/>
-      <c r="B87" s="97" t="s">
+      <c r="A87" s="99"/>
+      <c r="B87" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="C87" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D87" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E87" s="149"/>
-      <c r="F87" s="89" t="s">
+      <c r="C87" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E87" s="153"/>
+      <c r="F87" s="86" t="s">
         <v>344</v>
       </c>
-      <c r="G87" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H87" s="91" t="s">
+      <c r="G87" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H87" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="40.5">
-      <c r="A88" s="96" t="s">
+      <c r="A88" s="93" t="s">
         <v>369</v>
       </c>
-      <c r="B88" s="97" t="s">
+      <c r="B88" s="94" t="s">
         <v>370</v>
       </c>
-      <c r="C88" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D88" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E88" s="149"/>
-      <c r="F88" s="89" t="s">
+      <c r="C88" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E88" s="153"/>
+      <c r="F88" s="86" t="s">
         <v>345</v>
       </c>
-      <c r="G88" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H88" s="91" t="s">
+      <c r="G88" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H88" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="27">
-      <c r="A89" s="101"/>
-      <c r="B89" s="97" t="s">
+      <c r="A89" s="98"/>
+      <c r="B89" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="C89" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D89" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E89" s="149"/>
-      <c r="F89" s="89" t="s">
+      <c r="C89" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E89" s="153"/>
+      <c r="F89" s="86" t="s">
         <v>346</v>
       </c>
-      <c r="G89" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H89" s="91" t="s">
+      <c r="G89" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H89" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="27">
-      <c r="A90" s="101"/>
-      <c r="B90" s="97" t="s">
+      <c r="A90" s="98"/>
+      <c r="B90" s="94" t="s">
         <v>372</v>
       </c>
-      <c r="C90" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E90" s="149"/>
-      <c r="F90" s="89" t="s">
+      <c r="C90" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" s="153"/>
+      <c r="F90" s="86" t="s">
         <v>347</v>
       </c>
-      <c r="G90" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H90" s="91" t="s">
+      <c r="G90" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H90" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="27">
-      <c r="A91" s="102"/>
-      <c r="B91" s="97" t="s">
+      <c r="A91" s="99"/>
+      <c r="B91" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="C91" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="149"/>
-      <c r="F91" s="89" t="s">
+      <c r="C91" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="153"/>
+      <c r="F91" s="86" t="s">
         <v>348</v>
       </c>
-      <c r="G91" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H91" s="91" t="s">
+      <c r="G91" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H91" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="25.5">
-      <c r="A92" s="96" t="s">
+      <c r="A92" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="B92" s="100" t="s">
+      <c r="B92" s="97" t="s">
         <v>374</v>
       </c>
-      <c r="C92" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D92" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E92" s="150"/>
-      <c r="F92" s="90" t="s">
+      <c r="C92" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="154"/>
+      <c r="F92" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="G92" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H92" s="91" t="s">
+      <c r="G92" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H92" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="27.75">
-      <c r="A93" s="102"/>
-      <c r="B93" s="100" t="s">
+      <c r="A93" s="99"/>
+      <c r="B93" s="97" t="s">
         <v>375</v>
       </c>
-      <c r="C93" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D93" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E93" s="158" t="s">
+      <c r="C93" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E93" s="159" t="s">
         <v>246</v>
       </c>
-      <c r="F93" s="106" t="s">
+      <c r="F93" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="G93" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H93" s="91" t="s">
+      <c r="G93" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H93" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="27.75">
-      <c r="A94" s="96" t="s">
+      <c r="A94" s="93" t="s">
         <v>376</v>
       </c>
-      <c r="B94" s="97" t="s">
+      <c r="B94" s="94" t="s">
         <v>377</v>
       </c>
-      <c r="C94" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E94" s="159"/>
-      <c r="F94" s="106" t="s">
+      <c r="C94" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E94" s="160"/>
+      <c r="F94" s="103" t="s">
         <v>454</v>
       </c>
-      <c r="G94" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H94" s="91" t="s">
+      <c r="G94" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H94" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="27.75">
-      <c r="A95" s="101"/>
-      <c r="B95" s="97" t="s">
+      <c r="A95" s="98"/>
+      <c r="B95" s="94" t="s">
         <v>378</v>
       </c>
-      <c r="C95" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="159"/>
-      <c r="F95" s="106" t="s">
+      <c r="C95" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="160"/>
+      <c r="F95" s="103" t="s">
         <v>455</v>
       </c>
-      <c r="G95" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H95" s="91" t="s">
+      <c r="G95" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H95" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="27.75">
-      <c r="A96" s="102"/>
-      <c r="B96" s="97" t="s">
+      <c r="A96" s="99"/>
+      <c r="B96" s="94" t="s">
         <v>379</v>
       </c>
-      <c r="C96" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D96" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E96" s="159"/>
-      <c r="F96" s="106" t="s">
+      <c r="C96" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D96" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E96" s="160"/>
+      <c r="F96" s="103" t="s">
         <v>456</v>
       </c>
-      <c r="G96" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H96" s="91" t="s">
+      <c r="G96" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H96" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="27.75">
-      <c r="A97" s="96" t="s">
+      <c r="A97" s="93" t="s">
         <v>380</v>
       </c>
-      <c r="B97" s="100" t="s">
+      <c r="B97" s="97" t="s">
         <v>381</v>
       </c>
-      <c r="C97" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D97" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E97" s="159"/>
-      <c r="F97" s="106" t="s">
+      <c r="C97" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D97" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E97" s="160"/>
+      <c r="F97" s="103" t="s">
         <v>457</v>
       </c>
-      <c r="G97" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H97" s="91" t="s">
+      <c r="G97" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H97" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="27.75">
-      <c r="A98" s="101"/>
-      <c r="B98" s="100" t="s">
+      <c r="A98" s="98"/>
+      <c r="B98" s="97" t="s">
         <v>382</v>
       </c>
-      <c r="C98" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D98" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E98" s="159"/>
-      <c r="F98" s="106" t="s">
+      <c r="C98" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="160"/>
+      <c r="F98" s="103" t="s">
         <v>458</v>
       </c>
-      <c r="G98" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H98" s="91" t="s">
+      <c r="G98" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H98" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="27.75">
-      <c r="A99" s="102"/>
-      <c r="B99" s="100" t="s">
+      <c r="A99" s="99"/>
+      <c r="B99" s="97" t="s">
         <v>383</v>
       </c>
-      <c r="C99" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D99" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E99" s="159"/>
-      <c r="F99" s="106" t="s">
+      <c r="C99" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D99" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E99" s="160"/>
+      <c r="F99" s="103" t="s">
         <v>459</v>
       </c>
-      <c r="G99" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H99" s="91" t="s">
+      <c r="G99" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H99" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="27.75">
-      <c r="A100" s="96" t="s">
+      <c r="A100" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="B100" s="97" t="s">
+      <c r="B100" s="94" t="s">
         <v>384</v>
       </c>
-      <c r="C100" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D100" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E100" s="159"/>
-      <c r="F100" s="106" t="s">
+      <c r="C100" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D100" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E100" s="160"/>
+      <c r="F100" s="103" t="s">
         <v>460</v>
       </c>
-      <c r="G100" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H100" s="91" t="s">
+      <c r="G100" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H100" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="101"/>
-      <c r="B101" s="97" t="s">
+      <c r="A101" s="98"/>
+      <c r="B101" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="C101" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D101" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E101" s="159"/>
-      <c r="F101" s="106" t="s">
+      <c r="C101" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D101" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E101" s="160"/>
+      <c r="F101" s="103" t="s">
         <v>461</v>
       </c>
-      <c r="G101" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H101" s="91" t="s">
+      <c r="G101" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H101" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="27.75">
-      <c r="A102" s="102"/>
-      <c r="B102" s="97" t="s">
+      <c r="A102" s="99"/>
+      <c r="B102" s="94" t="s">
         <v>386</v>
       </c>
-      <c r="C102" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D102" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E102" s="159"/>
-      <c r="F102" s="106" t="s">
+      <c r="C102" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D102" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E102" s="160"/>
+      <c r="F102" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="G102" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H102" s="91" t="s">
+      <c r="G102" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H102" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="28.5">
-      <c r="A103" s="96" t="s">
+      <c r="A103" s="93" t="s">
         <v>387</v>
       </c>
-      <c r="B103" s="98" t="s">
+      <c r="B103" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="C103" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D103" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E103" s="159"/>
-      <c r="F103" s="105" t="s">
+      <c r="C103" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D103" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E103" s="160"/>
+      <c r="F103" s="102" t="s">
         <v>463</v>
       </c>
-      <c r="G103" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H103" s="91" t="s">
+      <c r="G103" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H103" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="27.75">
-      <c r="A104" s="102"/>
-      <c r="B104" s="98" t="s">
+      <c r="A104" s="99"/>
+      <c r="B104" s="95" t="s">
         <v>389</v>
       </c>
-      <c r="C104" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D104" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E104" s="159"/>
-      <c r="F104" s="106" t="s">
+      <c r="C104" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E104" s="160"/>
+      <c r="F104" s="103" t="s">
         <v>464</v>
       </c>
-      <c r="G104" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H104" s="91" t="s">
+      <c r="G104" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H104" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="27.75">
-      <c r="A105" s="96" t="s">
+      <c r="A105" s="93" t="s">
         <v>390</v>
       </c>
-      <c r="B105" s="97" t="s">
+      <c r="B105" s="94" t="s">
         <v>391</v>
       </c>
-      <c r="C105" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D105" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E105" s="159"/>
-      <c r="F105" s="106" t="s">
+      <c r="C105" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="160"/>
+      <c r="F105" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="G105" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H105" s="91" t="s">
+      <c r="G105" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H105" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="27.75">
-      <c r="A106" s="101"/>
-      <c r="B106" s="97" t="s">
+      <c r="A106" s="98"/>
+      <c r="B106" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="C106" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D106" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E106" s="160"/>
-      <c r="F106" s="106" t="s">
+      <c r="C106" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D106" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E106" s="161"/>
+      <c r="F106" s="103" t="s">
         <v>466</v>
       </c>
-      <c r="G106" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H106" s="91" t="s">
+      <c r="G106" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H106" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="27.75">
-      <c r="A107" s="102"/>
-      <c r="B107" s="97" t="s">
+      <c r="A107" s="99"/>
+      <c r="B107" s="94" t="s">
         <v>393</v>
       </c>
-      <c r="C107" s="95" t="s">
-        <v>262</v>
-      </c>
-      <c r="D107" s="94" t="s">
-        <v>71</v>
-      </c>
-      <c r="E107" s="165" t="s">
+      <c r="C107" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D107" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E107" s="141" t="s">
         <v>249</v>
       </c>
-      <c r="F107" s="106" t="s">
+      <c r="F107" s="103" t="s">
         <v>467</v>
       </c>
-      <c r="G107" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H107" s="91" t="s">
+      <c r="G107" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H107" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="41.25">
-      <c r="A108" s="153" t="s">
+      <c r="A108" s="144" t="s">
         <v>394</v>
       </c>
-      <c r="B108" s="93" t="s">
+      <c r="B108" s="90" t="s">
         <v>395</v>
       </c>
-      <c r="C108" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D108" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E108" s="165"/>
-      <c r="F108" s="106" t="s">
+      <c r="C108" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D108" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E108" s="141"/>
+      <c r="F108" s="103" t="s">
         <v>468</v>
       </c>
-      <c r="G108" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H108" s="91" t="s">
+      <c r="G108" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H108" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="27.75">
-      <c r="A109" s="154"/>
-      <c r="B109" s="93" t="s">
+      <c r="A109" s="146"/>
+      <c r="B109" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="C109" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D109" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E109" s="165"/>
-      <c r="F109" s="106" t="s">
+      <c r="C109" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D109" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E109" s="141"/>
+      <c r="F109" s="103" t="s">
         <v>469</v>
       </c>
-      <c r="G109" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H109" s="91" t="s">
+      <c r="G109" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H109" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="41.25">
-      <c r="A110" s="93" t="s">
+      <c r="A110" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="B110" s="93" t="s">
+      <c r="B110" s="90" t="s">
         <v>398</v>
       </c>
-      <c r="C110" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D110" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E110" s="165"/>
-      <c r="F110" s="106" t="s">
+      <c r="C110" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D110" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E110" s="141"/>
+      <c r="F110" s="103" t="s">
         <v>470</v>
       </c>
-      <c r="G110" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H110" s="91" t="s">
+      <c r="G110" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H110" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="41.25">
-      <c r="A111" s="153" t="s">
+      <c r="A111" s="144" t="s">
         <v>399</v>
       </c>
-      <c r="B111" s="93" t="s">
+      <c r="B111" s="90" t="s">
         <v>400</v>
       </c>
-      <c r="C111" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D111" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E111" s="165"/>
-      <c r="F111" s="106" t="s">
+      <c r="C111" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D111" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E111" s="141"/>
+      <c r="F111" s="103" t="s">
         <v>471</v>
       </c>
-      <c r="G111" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H111" s="91" t="s">
+      <c r="G111" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H111" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="41.25">
-      <c r="A112" s="154"/>
-      <c r="B112" s="93" t="s">
+      <c r="A112" s="146"/>
+      <c r="B112" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="C112" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D112" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E112" s="165"/>
-      <c r="F112" s="106" t="s">
+      <c r="C112" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D112" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E112" s="141"/>
+      <c r="F112" s="103" t="s">
         <v>472</v>
       </c>
-      <c r="G112" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H112" s="91" t="s">
+      <c r="G112" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H112" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="41.25">
-      <c r="A113" s="153" t="s">
+      <c r="A113" s="144" t="s">
         <v>240</v>
       </c>
-      <c r="B113" s="93" t="s">
+      <c r="B113" s="90" t="s">
         <v>401</v>
       </c>
-      <c r="C113" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D113" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E113" s="165"/>
-      <c r="F113" s="106" t="s">
+      <c r="C113" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D113" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E113" s="141"/>
+      <c r="F113" s="103" t="s">
         <v>473</v>
       </c>
-      <c r="G113" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H113" s="91" t="s">
+      <c r="G113" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H113" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="41.25">
-      <c r="A114" s="155"/>
-      <c r="B114" s="93" t="s">
+      <c r="A114" s="145"/>
+      <c r="B114" s="90" t="s">
         <v>402</v>
       </c>
-      <c r="C114" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D114" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E114" s="165"/>
-      <c r="F114" s="106" t="s">
+      <c r="C114" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D114" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E114" s="141"/>
+      <c r="F114" s="103" t="s">
         <v>474</v>
       </c>
-      <c r="G114" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H114" s="91" t="s">
+      <c r="G114" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H114" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="40.5">
-      <c r="A115" s="155"/>
-      <c r="B115" s="93" t="s">
+      <c r="A115" s="145"/>
+      <c r="B115" s="90" t="s">
         <v>403</v>
       </c>
-      <c r="C115" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D115" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E115" s="165"/>
-      <c r="F115" s="106" t="s">
+      <c r="C115" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D115" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E115" s="141"/>
+      <c r="F115" s="103" t="s">
         <v>475</v>
       </c>
-      <c r="G115" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H115" s="91" t="s">
+      <c r="G115" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H115" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="40.5">
-      <c r="A116" s="155"/>
-      <c r="B116" s="93" t="s">
+      <c r="A116" s="145"/>
+      <c r="B116" s="90" t="s">
         <v>404</v>
       </c>
-      <c r="C116" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D116" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E116" s="165"/>
-      <c r="F116" s="106" t="s">
+      <c r="C116" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D116" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E116" s="141"/>
+      <c r="F116" s="103" t="s">
         <v>476</v>
       </c>
-      <c r="G116" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H116" s="91" t="s">
+      <c r="G116" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H116" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="41.25">
-      <c r="A117" s="155"/>
-      <c r="B117" s="93" t="s">
+      <c r="A117" s="145"/>
+      <c r="B117" s="90" t="s">
         <v>405</v>
       </c>
-      <c r="C117" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D117" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E117" s="165"/>
-      <c r="F117" s="106" t="s">
+      <c r="C117" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D117" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E117" s="141"/>
+      <c r="F117" s="103" t="s">
         <v>477</v>
       </c>
-      <c r="G117" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H117" s="91" t="s">
+      <c r="G117" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H117" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="27.75">
-      <c r="A118" s="155"/>
-      <c r="B118" s="93" t="s">
+      <c r="A118" s="145"/>
+      <c r="B118" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="C118" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D118" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E118" s="165"/>
-      <c r="F118" s="106" t="s">
+      <c r="C118" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D118" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E118" s="141"/>
+      <c r="F118" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="G118" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H118" s="91" t="s">
+      <c r="G118" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H118" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="41.25">
-      <c r="A119" s="155"/>
-      <c r="B119" s="93" t="s">
+      <c r="A119" s="145"/>
+      <c r="B119" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="C119" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D119" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E119" s="165" t="s">
+      <c r="C119" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D119" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E119" s="141" t="s">
         <v>252</v>
       </c>
-      <c r="F119" s="106" t="s">
+      <c r="F119" s="103" t="s">
         <v>479</v>
       </c>
-      <c r="G119" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H119" s="91" t="s">
+      <c r="G119" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H119" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="27.75">
-      <c r="A120" s="155"/>
-      <c r="B120" s="93" t="s">
+      <c r="A120" s="145"/>
+      <c r="B120" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="C120" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D120" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E120" s="165"/>
-      <c r="F120" s="106" t="s">
+      <c r="C120" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D120" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E120" s="141"/>
+      <c r="F120" s="103" t="s">
         <v>480</v>
       </c>
-      <c r="G120" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H120" s="91" t="s">
+      <c r="G120" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H120" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="41.25">
-      <c r="A121" s="155"/>
-      <c r="B121" s="93" t="s">
+      <c r="A121" s="145"/>
+      <c r="B121" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="C121" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D121" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E121" s="165"/>
-      <c r="F121" s="106" t="s">
+      <c r="C121" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D121" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E121" s="141"/>
+      <c r="F121" s="103" t="s">
         <v>481</v>
       </c>
-      <c r="G121" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H121" s="91" t="s">
+      <c r="G121" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H121" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="41.25">
-      <c r="A122" s="155"/>
-      <c r="B122" s="93" t="s">
+      <c r="A122" s="145"/>
+      <c r="B122" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C122" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D122" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E122" s="165"/>
-      <c r="F122" s="106" t="s">
+      <c r="C122" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E122" s="141"/>
+      <c r="F122" s="103" t="s">
         <v>482</v>
       </c>
-      <c r="G122" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H122" s="91" t="s">
+      <c r="G122" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H122" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="41.25">
-      <c r="A123" s="155"/>
-      <c r="B123" s="93" t="s">
+      <c r="A123" s="145"/>
+      <c r="B123" s="90" t="s">
         <v>411</v>
       </c>
-      <c r="C123" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D123" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E123" s="165"/>
-      <c r="F123" s="106" t="s">
+      <c r="C123" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D123" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E123" s="141"/>
+      <c r="F123" s="103" t="s">
         <v>483</v>
       </c>
-      <c r="G123" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H123" s="91" t="s">
+      <c r="G123" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H123" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="41.25">
-      <c r="A124" s="155"/>
-      <c r="B124" s="93" t="s">
+      <c r="A124" s="145"/>
+      <c r="B124" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="C124" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D124" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E124" s="165"/>
-      <c r="F124" s="106" t="s">
+      <c r="C124" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E124" s="141"/>
+      <c r="F124" s="103" t="s">
         <v>484</v>
       </c>
-      <c r="G124" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H124" s="91" t="s">
+      <c r="G124" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H124" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="41.25">
-      <c r="A125" s="154"/>
-      <c r="B125" s="93" t="s">
+      <c r="A125" s="146"/>
+      <c r="B125" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="C125" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D125" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E125" s="165"/>
-      <c r="F125" s="106" t="s">
+      <c r="C125" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D125" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E125" s="141"/>
+      <c r="F125" s="103" t="s">
         <v>485</v>
       </c>
-      <c r="G125" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H125" s="91" t="s">
+      <c r="G125" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H125" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="27.75">
-      <c r="A126" s="153" t="s">
+      <c r="A126" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="B126" s="93" t="s">
+      <c r="B126" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="C126" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D126" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E126" s="165"/>
-      <c r="F126" s="106" t="s">
+      <c r="C126" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D126" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E126" s="141"/>
+      <c r="F126" s="103" t="s">
         <v>486</v>
       </c>
-      <c r="G126" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H126" s="91" t="s">
+      <c r="G126" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H126" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="27.75">
-      <c r="A127" s="155"/>
-      <c r="B127" s="93" t="s">
+      <c r="A127" s="145"/>
+      <c r="B127" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="C127" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D127" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E127" s="165"/>
-      <c r="F127" s="106" t="s">
+      <c r="C127" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D127" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E127" s="141"/>
+      <c r="F127" s="103" t="s">
         <v>487</v>
       </c>
-      <c r="G127" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H127" s="91" t="s">
+      <c r="G127" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H127" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="41.25">
-      <c r="A128" s="155"/>
-      <c r="B128" s="93" t="s">
+      <c r="A128" s="145"/>
+      <c r="B128" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="C128" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D128" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E128" s="165"/>
-      <c r="F128" s="106" t="s">
+      <c r="C128" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D128" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E128" s="141"/>
+      <c r="F128" s="103" t="s">
         <v>488</v>
       </c>
-      <c r="G128" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H128" s="91" t="s">
+      <c r="G128" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H128" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="27.75">
-      <c r="A129" s="155"/>
-      <c r="B129" s="93" t="s">
+      <c r="A129" s="145"/>
+      <c r="B129" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="C129" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D129" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E129" s="165"/>
-      <c r="F129" s="106" t="s">
+      <c r="C129" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D129" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E129" s="141"/>
+      <c r="F129" s="103" t="s">
         <v>478</v>
       </c>
-      <c r="G129" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H129" s="91" t="s">
+      <c r="G129" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H129" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="27">
-      <c r="A130" s="155"/>
-      <c r="B130" s="93" t="s">
+      <c r="A130" s="145"/>
+      <c r="B130" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C130" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E130" s="165" t="s">
+      <c r="C130" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E130" s="141" t="s">
         <v>255</v>
       </c>
-      <c r="F130" s="106" t="s">
+      <c r="F130" s="103" t="s">
         <v>489</v>
       </c>
-      <c r="G130" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H130" s="91" t="s">
+      <c r="G130" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H130" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="27.75">
-      <c r="A131" s="155"/>
-      <c r="B131" s="93" t="s">
+      <c r="A131" s="145"/>
+      <c r="B131" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="C131" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D131" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E131" s="165"/>
-      <c r="F131" s="106" t="s">
+      <c r="C131" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D131" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E131" s="141"/>
+      <c r="F131" s="103" t="s">
         <v>490</v>
       </c>
-      <c r="G131" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H131" s="91" t="s">
+      <c r="G131" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H131" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="27.75">
-      <c r="A132" s="155"/>
-      <c r="B132" s="93" t="s">
+      <c r="A132" s="145"/>
+      <c r="B132" s="90" t="s">
         <v>416</v>
       </c>
-      <c r="C132" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D132" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E132" s="165"/>
-      <c r="F132" s="106" t="s">
+      <c r="C132" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D132" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E132" s="141"/>
+      <c r="F132" s="103" t="s">
         <v>491</v>
       </c>
-      <c r="G132" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H132" s="91" t="s">
+      <c r="G132" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H132" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="27.75">
-      <c r="A133" s="155"/>
-      <c r="B133" s="93" t="s">
+      <c r="A133" s="145"/>
+      <c r="B133" s="90" t="s">
         <v>417</v>
       </c>
-      <c r="C133" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D133" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E133" s="165"/>
-      <c r="F133" s="106" t="s">
+      <c r="C133" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D133" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E133" s="141"/>
+      <c r="F133" s="103" t="s">
         <v>492</v>
       </c>
-      <c r="G133" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H133" s="91" t="s">
+      <c r="G133" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H133" s="88" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="40.5">
-      <c r="A134" s="155"/>
-      <c r="B134" s="93" t="s">
+      <c r="A134" s="145"/>
+      <c r="B134" s="90" t="s">
         <v>418</v>
       </c>
-      <c r="C134" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D134" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E134" s="166"/>
-      <c r="F134" s="106" t="s">
+      <c r="C134" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E134" s="142"/>
+      <c r="F134" s="103" t="s">
         <v>493</v>
       </c>
-      <c r="G134" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H134" s="74" t="s">
+      <c r="G134" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H134" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="27.75">
-      <c r="A135" s="155"/>
-      <c r="B135" s="93" t="s">
+      <c r="A135" s="145"/>
+      <c r="B135" s="90" t="s">
         <v>419</v>
       </c>
-      <c r="C135" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D135" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E135" s="166"/>
-      <c r="F135" s="106" t="s">
+      <c r="C135" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E135" s="142"/>
+      <c r="F135" s="103" t="s">
         <v>494</v>
       </c>
-      <c r="G135" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H135" s="74" t="s">
+      <c r="G135" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H135" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="27.75">
-      <c r="A136" s="155"/>
-      <c r="B136" s="93" t="s">
+      <c r="A136" s="145"/>
+      <c r="B136" s="90" t="s">
         <v>420</v>
       </c>
-      <c r="C136" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D136" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E136" s="104"/>
-      <c r="F136" s="106" t="s">
+      <c r="C136" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D136" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E136" s="101"/>
+      <c r="F136" s="103" t="s">
         <v>495</v>
       </c>
-      <c r="G136" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H136" s="74" t="s">
+      <c r="G136" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H136" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="27.75">
-      <c r="A137" s="155"/>
-      <c r="B137" s="93" t="s">
+      <c r="A137" s="145"/>
+      <c r="B137" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="C137" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D137" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E137" s="165" t="s">
+      <c r="C137" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D137" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E137" s="141" t="s">
         <v>206</v>
       </c>
-      <c r="F137" s="106" t="s">
+      <c r="F137" s="103" t="s">
         <v>496</v>
       </c>
-      <c r="G137" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H137" s="74" t="s">
+      <c r="G137" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H137" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="27.75">
-      <c r="A138" s="155"/>
-      <c r="B138" s="93" t="s">
+      <c r="A138" s="145"/>
+      <c r="B138" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="C138" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D138" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E138" s="165"/>
-      <c r="F138" s="106" t="s">
+      <c r="C138" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D138" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E138" s="141"/>
+      <c r="F138" s="103" t="s">
         <v>497</v>
       </c>
-      <c r="G138" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H138" s="74" t="s">
+      <c r="G138" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H138" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="27.75">
-      <c r="A139" s="155"/>
-      <c r="B139" s="93" t="s">
+      <c r="A139" s="145"/>
+      <c r="B139" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="C139" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D139" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E139" s="165"/>
-      <c r="F139" s="106" t="s">
+      <c r="C139" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D139" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E139" s="141"/>
+      <c r="F139" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="G139" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H139" s="74" t="s">
+      <c r="G139" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H139" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="27.75">
-      <c r="A140" s="155"/>
-      <c r="B140" s="93" t="s">
+      <c r="A140" s="145"/>
+      <c r="B140" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="C140" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D140" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E140" s="165"/>
-      <c r="F140" s="106" t="s">
+      <c r="C140" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D140" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E140" s="141"/>
+      <c r="F140" s="103" t="s">
         <v>499</v>
       </c>
-      <c r="G140" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H140" s="74" t="s">
+      <c r="G140" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H140" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="41.25">
-      <c r="A141" s="154"/>
-      <c r="B141" s="93" t="s">
+      <c r="A141" s="146"/>
+      <c r="B141" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C141" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D141" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E141" s="165"/>
-      <c r="F141" s="106" t="s">
+      <c r="C141" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D141" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E141" s="141"/>
+      <c r="F141" s="103" t="s">
         <v>500</v>
       </c>
-      <c r="G141" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H141" s="74" t="s">
+      <c r="G141" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H141" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="41.25">
-      <c r="A142" s="153" t="s">
+      <c r="A142" s="144" t="s">
         <v>244</v>
       </c>
-      <c r="B142" s="93" t="s">
+      <c r="B142" s="90" t="s">
         <v>422</v>
       </c>
-      <c r="C142" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D142" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E142" s="165"/>
-      <c r="F142" s="106" t="s">
+      <c r="C142" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D142" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E142" s="141"/>
+      <c r="F142" s="103" t="s">
         <v>501</v>
       </c>
-      <c r="G142" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H142" s="74" t="s">
+      <c r="G142" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H142" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="41.25">
-      <c r="A143" s="155"/>
-      <c r="B143" s="93" t="s">
+      <c r="A143" s="145"/>
+      <c r="B143" s="90" t="s">
         <v>423</v>
       </c>
-      <c r="C143" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D143" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E143" s="165"/>
-      <c r="F143" s="106" t="s">
+      <c r="C143" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D143" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E143" s="141"/>
+      <c r="F143" s="103" t="s">
         <v>502</v>
       </c>
-      <c r="G143" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H143" s="74" t="s">
+      <c r="G143" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H143" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="41.25">
-      <c r="A144" s="154"/>
-      <c r="B144" s="93" t="s">
+      <c r="A144" s="146"/>
+      <c r="B144" s="90" t="s">
         <v>424</v>
       </c>
-      <c r="C144" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D144" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E144" s="165"/>
-      <c r="F144" s="106" t="s">
+      <c r="C144" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D144" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E144" s="141"/>
+      <c r="F144" s="103" t="s">
         <v>503</v>
       </c>
-      <c r="G144" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H144" s="74" t="s">
+      <c r="G144" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H144" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="41.25">
-      <c r="A145" s="153" t="s">
+      <c r="A145" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="B145" s="93" t="s">
+      <c r="B145" s="90" t="s">
         <v>421</v>
       </c>
-      <c r="C145" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D145" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E145" s="165"/>
-      <c r="F145" s="106" t="s">
+      <c r="C145" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D145" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E145" s="141"/>
+      <c r="F145" s="103" t="s">
         <v>504</v>
       </c>
-      <c r="G145" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H145" s="74" t="s">
+      <c r="G145" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H145" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="41.25">
-      <c r="A146" s="155"/>
-      <c r="B146" s="93" t="s">
+      <c r="A146" s="145"/>
+      <c r="B146" s="90" t="s">
         <v>407</v>
       </c>
-      <c r="C146" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D146" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E146" s="165"/>
-      <c r="F146" s="106" t="s">
+      <c r="C146" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D146" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E146" s="141"/>
+      <c r="F146" s="103" t="s">
         <v>505</v>
       </c>
-      <c r="G146" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H146" s="74" t="s">
+      <c r="G146" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H146" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="41.25">
-      <c r="A147" s="155"/>
-      <c r="B147" s="93" t="s">
+      <c r="A147" s="145"/>
+      <c r="B147" s="90" t="s">
         <v>408</v>
       </c>
-      <c r="C147" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D147" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E147" s="165"/>
-      <c r="F147" s="106" t="s">
+      <c r="C147" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D147" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147" s="141"/>
+      <c r="F147" s="103" t="s">
         <v>506</v>
       </c>
-      <c r="G147" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H147" s="74" t="s">
+      <c r="G147" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H147" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="41.25">
-      <c r="A148" s="155"/>
-      <c r="B148" s="93" t="s">
+      <c r="A148" s="145"/>
+      <c r="B148" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="C148" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D148" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E148" s="165"/>
-      <c r="F148" s="106" t="s">
+      <c r="C148" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D148" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E148" s="141"/>
+      <c r="F148" s="103" t="s">
         <v>507</v>
       </c>
-      <c r="G148" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H148" s="74" t="s">
+      <c r="G148" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H148" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="41.25">
-      <c r="A149" s="155"/>
-      <c r="B149" s="93" t="s">
+      <c r="A149" s="145"/>
+      <c r="B149" s="90" t="s">
         <v>410</v>
       </c>
-      <c r="C149" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D149" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E149" s="165"/>
-      <c r="F149" s="106" t="s">
+      <c r="C149" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D149" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E149" s="141"/>
+      <c r="F149" s="103" t="s">
         <v>508</v>
       </c>
-      <c r="G149" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H149" s="74" t="s">
+      <c r="G149" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H149" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="27.75">
-      <c r="A150" s="155"/>
-      <c r="B150" s="93" t="s">
+      <c r="A150" s="145"/>
+      <c r="B150" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="C150" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D150" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E150" s="165" t="s">
+      <c r="C150" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D150" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E150" s="141" t="s">
         <v>209</v>
       </c>
-      <c r="F150" s="106" t="s">
+      <c r="F150" s="103" t="s">
         <v>497</v>
       </c>
-      <c r="G150" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H150" s="74" t="s">
+      <c r="G150" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H150" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="27.75">
-      <c r="A151" s="155"/>
-      <c r="B151" s="93" t="s">
+      <c r="A151" s="145"/>
+      <c r="B151" s="90" t="s">
         <v>426</v>
       </c>
-      <c r="C151" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D151" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E151" s="167"/>
-      <c r="F151" s="106" t="s">
+      <c r="C151" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D151" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E151" s="143"/>
+      <c r="F151" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="G151" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H151" s="74" t="s">
+      <c r="G151" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H151" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="27.75">
-      <c r="A152" s="155"/>
-      <c r="B152" s="93" t="s">
+      <c r="A152" s="145"/>
+      <c r="B152" s="90" t="s">
         <v>427</v>
       </c>
-      <c r="C152" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D152" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E152" s="167"/>
-      <c r="F152" s="106" t="s">
+      <c r="C152" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D152" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E152" s="143"/>
+      <c r="F152" s="103" t="s">
         <v>499</v>
       </c>
-      <c r="G152" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H152" s="74" t="s">
+      <c r="G152" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H152" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="41.25">
-      <c r="A153" s="154"/>
-      <c r="B153" s="93" t="s">
+      <c r="A153" s="146"/>
+      <c r="B153" s="90" t="s">
         <v>428</v>
       </c>
-      <c r="C153" s="93" t="s">
-        <v>262</v>
-      </c>
-      <c r="D153" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="E153" s="167"/>
-      <c r="F153" s="106" t="s">
+      <c r="C153" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D153" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="E153" s="143"/>
+      <c r="F153" s="103" t="s">
         <v>500</v>
       </c>
-      <c r="G153" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H153" s="74" t="s">
+      <c r="G153" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H153" s="71" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10648,89 +10938,89 @@
       <c r="A154" s="162" t="s">
         <v>429</v>
       </c>
-      <c r="B154" s="92" t="s">
+      <c r="B154" s="89" t="s">
         <v>430</v>
       </c>
-      <c r="C154" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D154" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E154" s="167"/>
-      <c r="F154" s="106" t="s">
+      <c r="C154" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D154" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E154" s="143"/>
+      <c r="F154" s="103" t="s">
         <v>501</v>
       </c>
-      <c r="G154" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H154" s="74" t="s">
+      <c r="G154" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H154" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="54">
       <c r="A155" s="163"/>
-      <c r="B155" s="92" t="s">
+      <c r="B155" s="89" t="s">
         <v>431</v>
       </c>
-      <c r="C155" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D155" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E155" s="167"/>
-      <c r="F155" s="106" t="s">
+      <c r="C155" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D155" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E155" s="143"/>
+      <c r="F155" s="103" t="s">
         <v>502</v>
       </c>
-      <c r="G155" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H155" s="74" t="s">
+      <c r="G155" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H155" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="54">
       <c r="A156" s="163"/>
-      <c r="B156" s="92" t="s">
+      <c r="B156" s="89" t="s">
         <v>432</v>
       </c>
-      <c r="C156" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D156" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E156" s="167"/>
-      <c r="F156" s="106" t="s">
+      <c r="C156" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D156" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E156" s="143"/>
+      <c r="F156" s="103" t="s">
         <v>503</v>
       </c>
-      <c r="G156" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H156" s="74" t="s">
+      <c r="G156" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H156" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="67.5">
       <c r="A157" s="164"/>
-      <c r="B157" s="92" t="s">
+      <c r="B157" s="89" t="s">
         <v>433</v>
       </c>
-      <c r="C157" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D157" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E157" s="167"/>
-      <c r="F157" s="106" t="s">
+      <c r="C157" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D157" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E157" s="143"/>
+      <c r="F157" s="103" t="s">
         <v>504</v>
       </c>
-      <c r="G157" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H157" s="74" t="s">
+      <c r="G157" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H157" s="71" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10738,67 +11028,67 @@
       <c r="A158" s="162" t="s">
         <v>434</v>
       </c>
-      <c r="B158" s="92" t="s">
+      <c r="B158" s="89" t="s">
         <v>435</v>
       </c>
-      <c r="C158" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D158" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E158" s="167"/>
-      <c r="F158" s="106" t="s">
+      <c r="C158" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D158" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E158" s="143"/>
+      <c r="F158" s="103" t="s">
         <v>505</v>
       </c>
-      <c r="G158" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H158" s="74" t="s">
+      <c r="G158" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H158" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="54">
       <c r="A159" s="163"/>
-      <c r="B159" s="92" t="s">
+      <c r="B159" s="89" t="s">
         <v>436</v>
       </c>
-      <c r="C159" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D159" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E159" s="167"/>
-      <c r="F159" s="106" t="s">
+      <c r="C159" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D159" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E159" s="143"/>
+      <c r="F159" s="103" t="s">
         <v>506</v>
       </c>
-      <c r="G159" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H159" s="74" t="s">
+      <c r="G159" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H159" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="54">
       <c r="A160" s="164"/>
-      <c r="B160" s="92" t="s">
+      <c r="B160" s="89" t="s">
         <v>437</v>
       </c>
-      <c r="C160" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D160" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E160" s="167"/>
-      <c r="F160" s="106" t="s">
+      <c r="C160" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D160" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E160" s="143"/>
+      <c r="F160" s="103" t="s">
         <v>507</v>
       </c>
-      <c r="G160" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H160" s="74" t="s">
+      <c r="G160" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H160" s="71" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10806,69 +11096,69 @@
       <c r="A161" s="162" t="s">
         <v>438</v>
       </c>
-      <c r="B161" s="92" t="s">
+      <c r="B161" s="89" t="s">
         <v>439</v>
       </c>
-      <c r="C161" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D161" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E161" s="167"/>
-      <c r="F161" s="106" t="s">
+      <c r="C161" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D161" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E161" s="143"/>
+      <c r="F161" s="103" t="s">
         <v>508</v>
       </c>
-      <c r="G161" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H161" s="74" t="s">
+      <c r="G161" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H161" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="54">
       <c r="A162" s="163"/>
-      <c r="B162" s="92" t="s">
+      <c r="B162" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="C162" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D162" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E162" s="165" t="s">
+      <c r="C162" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D162" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E162" s="141" t="s">
         <v>210</v>
       </c>
-      <c r="F162" s="106" t="s">
+      <c r="F162" s="103" t="s">
         <v>497</v>
       </c>
-      <c r="G162" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H162" s="74" t="s">
+      <c r="G162" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H162" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="54">
       <c r="A163" s="164"/>
-      <c r="B163" s="92" t="s">
+      <c r="B163" s="89" t="s">
         <v>441</v>
       </c>
-      <c r="C163" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D163" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E163" s="165"/>
-      <c r="F163" s="106" t="s">
+      <c r="C163" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D163" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E163" s="141"/>
+      <c r="F163" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="G163" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H163" s="74" t="s">
+      <c r="G163" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H163" s="71" t="s">
         <v>521</v>
       </c>
     </row>
@@ -10876,550 +11166,536 @@
       <c r="A164" s="162" t="s">
         <v>442</v>
       </c>
-      <c r="B164" s="92" t="s">
+      <c r="B164" s="89" t="s">
         <v>443</v>
       </c>
-      <c r="C164" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D164" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E164" s="165"/>
-      <c r="F164" s="106" t="s">
+      <c r="C164" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D164" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164" s="141"/>
+      <c r="F164" s="103" t="s">
         <v>499</v>
       </c>
-      <c r="G164" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H164" s="74" t="s">
+      <c r="G164" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H164" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="41.25">
       <c r="A165" s="163"/>
-      <c r="B165" s="92" t="s">
+      <c r="B165" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="C165" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D165" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E165" s="165"/>
-      <c r="F165" s="106" t="s">
+      <c r="C165" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D165" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E165" s="141"/>
+      <c r="F165" s="103" t="s">
         <v>500</v>
       </c>
-      <c r="G165" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H165" s="74" t="s">
+      <c r="G165" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H165" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="41.25">
       <c r="A166" s="163"/>
-      <c r="B166" s="92" t="s">
+      <c r="B166" s="89" t="s">
         <v>445</v>
       </c>
-      <c r="C166" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D166" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E166" s="165"/>
-      <c r="F166" s="106" t="s">
+      <c r="C166" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D166" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="141"/>
+      <c r="F166" s="103" t="s">
         <v>501</v>
       </c>
-      <c r="G166" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H166" s="74" t="s">
+      <c r="G166" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H166" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="54.75">
       <c r="A167" s="164"/>
-      <c r="B167" s="92" t="s">
+      <c r="B167" s="89" t="s">
         <v>446</v>
       </c>
-      <c r="C167" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D167" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E167" s="165"/>
-      <c r="F167" s="106" t="s">
+      <c r="C167" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D167" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E167" s="141"/>
+      <c r="F167" s="103" t="s">
         <v>509</v>
       </c>
-      <c r="G167" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H167" s="74" t="s">
+      <c r="G167" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H167" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="54.75">
-      <c r="A168" s="161" t="s">
+      <c r="A168" s="147" t="s">
         <v>238</v>
       </c>
-      <c r="B168" s="92" t="s">
+      <c r="B168" s="89" t="s">
         <v>447</v>
       </c>
-      <c r="C168" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D168" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E168" s="165"/>
-      <c r="F168" s="106" t="s">
+      <c r="C168" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D168" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E168" s="141"/>
+      <c r="F168" s="103" t="s">
         <v>510</v>
       </c>
-      <c r="G168" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H168" s="74" t="s">
+      <c r="G168" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H168" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="54.75">
-      <c r="A169" s="161"/>
-      <c r="B169" s="92" t="s">
+      <c r="A169" s="147"/>
+      <c r="B169" s="89" t="s">
         <v>448</v>
       </c>
-      <c r="C169" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D169" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E169" s="165"/>
-      <c r="F169" s="106" t="s">
+      <c r="C169" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D169" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E169" s="141"/>
+      <c r="F169" s="103" t="s">
         <v>511</v>
       </c>
-      <c r="G169" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H169" s="74" t="s">
+      <c r="G169" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H169" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="54.75">
-      <c r="A170" s="161"/>
-      <c r="B170" s="92" t="s">
+      <c r="A170" s="147"/>
+      <c r="B170" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="C170" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D170" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E170" s="165"/>
-      <c r="F170" s="106" t="s">
+      <c r="C170" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D170" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E170" s="141"/>
+      <c r="F170" s="103" t="s">
         <v>512</v>
       </c>
-      <c r="G170" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H170" s="74" t="s">
+      <c r="G170" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H170" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="171" spans="1:8" ht="54.75">
-      <c r="A171" s="161" t="s">
+      <c r="A171" s="147" t="s">
         <v>241</v>
       </c>
-      <c r="B171" s="92" t="s">
+      <c r="B171" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="C171" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D171" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E171" s="165"/>
-      <c r="F171" s="106" t="s">
+      <c r="C171" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D171" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E171" s="141"/>
+      <c r="F171" s="103" t="s">
         <v>513</v>
       </c>
-      <c r="G171" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H171" s="74" t="s">
+      <c r="G171" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H171" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="172" spans="1:8" ht="54.75">
-      <c r="A172" s="161"/>
-      <c r="B172" s="92" t="s">
+      <c r="A172" s="147"/>
+      <c r="B172" s="89" t="s">
         <v>448</v>
       </c>
-      <c r="C172" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D172" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E172" s="165"/>
-      <c r="F172" s="106" t="s">
+      <c r="C172" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D172" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E172" s="141"/>
+      <c r="F172" s="103" t="s">
         <v>514</v>
       </c>
-      <c r="G172" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H172" s="74" t="s">
+      <c r="G172" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H172" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="54.75">
-      <c r="A173" s="161"/>
-      <c r="B173" s="92" t="s">
+      <c r="A173" s="147"/>
+      <c r="B173" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="C173" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D173" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E173" s="165"/>
-      <c r="F173" s="106" t="s">
+      <c r="C173" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D173" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E173" s="141"/>
+      <c r="F173" s="103" t="s">
         <v>515</v>
       </c>
-      <c r="G173" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H173" s="74" t="s">
+      <c r="G173" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H173" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="27.75">
-      <c r="A174" s="161" t="s">
+      <c r="A174" s="147" t="s">
         <v>243</v>
       </c>
-      <c r="B174" s="92" t="s">
+      <c r="B174" s="89" t="s">
         <v>451</v>
       </c>
-      <c r="C174" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D174" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E174" s="165" t="s">
+      <c r="C174" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D174" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E174" s="141" t="s">
         <v>211</v>
       </c>
-      <c r="F174" s="106" t="s">
+      <c r="F174" s="103" t="s">
         <v>516</v>
       </c>
-      <c r="G174" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H174" s="74" t="s">
+      <c r="G174" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H174" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="175" spans="1:8" ht="27.75">
-      <c r="A175" s="161"/>
-      <c r="B175" s="92" t="s">
+      <c r="A175" s="147"/>
+      <c r="B175" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="C175" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D175" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E175" s="165"/>
-      <c r="F175" s="106" t="s">
+      <c r="C175" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D175" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E175" s="141"/>
+      <c r="F175" s="103" t="s">
         <v>517</v>
       </c>
-      <c r="G175" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H175" s="74" t="s">
+      <c r="G175" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H175" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="27.75">
-      <c r="A176" s="161"/>
-      <c r="B176" s="92" t="s">
+      <c r="A176" s="147"/>
+      <c r="B176" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="C176" s="92" t="s">
-        <v>262</v>
-      </c>
-      <c r="D176" s="103" t="s">
-        <v>71</v>
-      </c>
-      <c r="E176" s="165"/>
-      <c r="F176" s="106" t="s">
+      <c r="C176" s="89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D176" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E176" s="141"/>
+      <c r="F176" s="103" t="s">
         <v>518</v>
       </c>
-      <c r="G176" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H176" s="74" t="s">
+      <c r="G176" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H176" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="27.75">
-      <c r="E177" s="165"/>
-      <c r="F177" s="106" t="s">
+      <c r="E177" s="141"/>
+      <c r="F177" s="103" t="s">
         <v>519</v>
       </c>
-      <c r="G177" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H177" s="74" t="s">
+      <c r="G177" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H177" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="178" spans="1:8" ht="27.75">
-      <c r="E178" s="165"/>
-      <c r="F178" s="106" t="s">
+      <c r="E178" s="141"/>
+      <c r="F178" s="103" t="s">
         <v>520</v>
       </c>
-      <c r="G178" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H178" s="74" t="s">
+      <c r="G178" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H178" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:8" ht="29.25">
-      <c r="A179" s="146" t="s">
+      <c r="A179" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="146"/>
-      <c r="C179" s="146"/>
-      <c r="D179" s="147"/>
-      <c r="E179" s="165" t="s">
+      <c r="B179" s="150"/>
+      <c r="C179" s="150"/>
+      <c r="D179" s="151"/>
+      <c r="E179" s="141" t="s">
         <v>212</v>
       </c>
-      <c r="F179" s="106" t="s">
+      <c r="F179" s="103" t="s">
         <v>497</v>
       </c>
-      <c r="G179" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H179" s="74" t="s">
+      <c r="G179" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H179" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="27.75">
-      <c r="A180" s="108" t="s">
+      <c r="A180" s="105" t="s">
         <v>522</v>
       </c>
-      <c r="B180" s="108" t="s">
+      <c r="B180" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C180" s="108" t="s">
+      <c r="C180" s="105" t="s">
         <v>523</v>
       </c>
-      <c r="D180" s="108" t="s">
+      <c r="D180" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="E180" s="165"/>
-      <c r="F180" s="106" t="s">
+      <c r="E180" s="141"/>
+      <c r="F180" s="103" t="s">
         <v>498</v>
       </c>
-      <c r="G180" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H180" s="74" t="s">
+      <c r="G180" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H180" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="181" spans="1:8" ht="27.75">
-      <c r="A181" s="107" t="s">
+      <c r="A181" s="104" t="s">
         <v>524</v>
       </c>
-      <c r="B181" s="107" t="s">
+      <c r="B181" s="104" t="s">
         <v>526</v>
       </c>
-      <c r="C181" s="108" t="s">
+      <c r="C181" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="D181" s="108" t="s">
+      <c r="D181" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="E181" s="165"/>
-      <c r="F181" s="106" t="s">
+      <c r="E181" s="141"/>
+      <c r="F181" s="103" t="s">
         <v>499</v>
       </c>
-      <c r="G181" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H181" s="74" t="s">
+      <c r="G181" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H181" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="182" spans="1:8" ht="41.25">
-      <c r="A182" s="107" t="s">
+      <c r="A182" s="104" t="s">
         <v>524</v>
       </c>
-      <c r="B182" s="109" t="s">
+      <c r="B182" s="106" t="s">
         <v>527</v>
       </c>
-      <c r="C182" s="108" t="s">
+      <c r="C182" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="D182" s="108" t="s">
+      <c r="D182" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="E182" s="165"/>
-      <c r="F182" s="106" t="s">
+      <c r="E182" s="141"/>
+      <c r="F182" s="103" t="s">
         <v>500</v>
       </c>
-      <c r="G182" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H182" s="74" t="s">
+      <c r="G182" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H182" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="41.25">
-      <c r="A183" s="107" t="s">
+      <c r="A183" s="104" t="s">
         <v>530</v>
       </c>
-      <c r="B183" s="107" t="s">
+      <c r="B183" s="104" t="s">
         <v>529</v>
       </c>
-      <c r="C183" s="108" t="s">
+      <c r="C183" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="D183" s="108" t="s">
+      <c r="D183" s="105" t="s">
         <v>528</v>
       </c>
-      <c r="E183" s="165"/>
-      <c r="F183" s="106" t="s">
+      <c r="E183" s="141"/>
+      <c r="F183" s="103" t="s">
         <v>501</v>
       </c>
-      <c r="G183" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H183" s="74" t="s">
+      <c r="G183" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H183" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="54.75">
-      <c r="A184" s="107" t="s">
+      <c r="A184" s="104" t="s">
         <v>530</v>
       </c>
-      <c r="B184" s="107" t="s">
+      <c r="B184" s="104" t="s">
         <v>531</v>
       </c>
-      <c r="C184" s="108" t="s">
+      <c r="C184" s="105" t="s">
         <v>525</v>
       </c>
-      <c r="D184" s="108" t="s">
+      <c r="D184" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="165"/>
-      <c r="F184" s="106" t="s">
+      <c r="E184" s="141"/>
+      <c r="F184" s="103" t="s">
         <v>509</v>
       </c>
-      <c r="G184" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H184" s="74" t="s">
+      <c r="G184" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H184" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="185" spans="1:8" ht="54.75">
-      <c r="E185" s="165"/>
-      <c r="F185" s="106" t="s">
+      <c r="E185" s="141"/>
+      <c r="F185" s="103" t="s">
         <v>510</v>
       </c>
-      <c r="G185" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H185" s="74" t="s">
+      <c r="G185" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H185" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="54.75">
-      <c r="E186" s="165"/>
-      <c r="F186" s="106" t="s">
+      <c r="E186" s="141"/>
+      <c r="F186" s="103" t="s">
         <v>511</v>
       </c>
-      <c r="G186" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H186" s="74" t="s">
+      <c r="G186" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H186" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="54.75">
-      <c r="E187" s="165"/>
-      <c r="F187" s="106" t="s">
+      <c r="E187" s="141"/>
+      <c r="F187" s="103" t="s">
         <v>512</v>
       </c>
-      <c r="G187" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H187" s="74" t="s">
+      <c r="G187" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H187" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="54.75">
-      <c r="E188" s="165"/>
-      <c r="F188" s="106" t="s">
+      <c r="E188" s="141"/>
+      <c r="F188" s="103" t="s">
         <v>513</v>
       </c>
-      <c r="G188" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H188" s="74" t="s">
+      <c r="G188" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H188" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="54.75">
-      <c r="E189" s="165"/>
-      <c r="F189" s="106" t="s">
+      <c r="E189" s="141"/>
+      <c r="F189" s="103" t="s">
         <v>514</v>
       </c>
-      <c r="G189" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H189" s="74" t="s">
+      <c r="G189" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H189" s="71" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="54.75">
-      <c r="E190" s="165"/>
-      <c r="F190" s="106" t="s">
+      <c r="E190" s="141"/>
+      <c r="F190" s="103" t="s">
         <v>515</v>
       </c>
-      <c r="G190" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="H190" s="74" t="s">
+      <c r="G190" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H190" s="71" t="s">
         <v>521</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="E179:E190"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E107:E118"/>
-    <mergeCell ref="E119:E129"/>
-    <mergeCell ref="E137:E149"/>
-    <mergeCell ref="E150:E161"/>
-    <mergeCell ref="E162:E173"/>
-    <mergeCell ref="E174:E178"/>
-    <mergeCell ref="A126:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A153"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A179:D179"/>
@@ -11436,6 +11712,20 @@
     <mergeCell ref="A154:A157"/>
     <mergeCell ref="A158:A160"/>
     <mergeCell ref="A164:A167"/>
+    <mergeCell ref="A126:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A153"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
+    <mergeCell ref="E179:E190"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E107:E118"/>
+    <mergeCell ref="E119:E129"/>
+    <mergeCell ref="E137:E149"/>
+    <mergeCell ref="E150:E161"/>
+    <mergeCell ref="E162:E173"/>
+    <mergeCell ref="E174:E178"/>
   </mergeCells>
   <phoneticPr fontId="56" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11447,8 +11737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11462,19 +11752,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -11536,7 +11826,7 @@
       <c r="H3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>43649</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -11569,7 +11859,7 @@
       <c r="H4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>43649</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -11581,7 +11871,7 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="70" t="s">
         <v>199</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -11602,7 +11892,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>43649</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -11635,7 +11925,7 @@
       <c r="H6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>43649</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -11643,18 +11933,38 @@
       </c>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="10"/>
+    <row r="7" spans="1:11" ht="24">
+      <c r="A7" s="166">
+        <v>5</v>
+      </c>
+      <c r="B7" s="166" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="166" t="s">
+        <v>533</v>
+      </c>
+      <c r="E7" s="166" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="166" t="s">
+        <v>534</v>
+      </c>
+      <c r="G7" s="166" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="166" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="167">
+        <v>43649</v>
+      </c>
+      <c r="J7" s="166" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/996组WoniuBoss测试方案.xlsx
+++ b/996组WoniuBoss测试方案.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="543">
   <si>
     <t>1.</t>
   </si>
@@ -2152,6 +2152,30 @@
   </si>
   <si>
     <t>马锋</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试细节内容多，导致成员无法按时完成，进度拖延</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块数据内容</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编写阶段</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升效率，加快工作进度</t>
+    <phoneticPr fontId="55" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈俊攀</t>
     <phoneticPr fontId="55" type="noConversion"/>
   </si>
 </sst>
@@ -4958,6 +4982,69 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="69" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="1" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="6" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="7" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4972,69 +5059,6 @@
     </xf>
     <xf numFmtId="0" fontId="81" fillId="3" borderId="5" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="69" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="3" borderId="1" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="79" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="4" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="6" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="7" xfId="71" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="69" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5064,6 +5088,69 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5072,69 +5159,6 @@
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="137" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="70" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="4" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="137" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="4" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="283" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="80" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5873,7 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
@@ -5909,12 +5933,12 @@
     </row>
     <row r="3" spans="1:5" ht="39.75" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="40"/>
@@ -5945,21 +5969,21 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="40"/>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="40"/>
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
+      <c r="C8" s="114"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="40"/>
@@ -5978,13 +6002,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="40"/>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="126" t="s">
         <v>248</v>
       </c>
       <c r="C10" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="131" t="s">
+      <c r="D10" s="126" t="s">
         <v>250</v>
       </c>
       <c r="E10" s="75" t="s">
@@ -5993,35 +6017,35 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="40"/>
-      <c r="B11" s="132"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="D11" s="132"/>
+      <c r="D11" s="127"/>
       <c r="E11" s="75" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="40"/>
-      <c r="B12" s="133"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="D12" s="133"/>
+      <c r="D12" s="128"/>
       <c r="E12" s="75" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="40"/>
-      <c r="B13" s="125" t="s">
+      <c r="B13" s="117" t="s">
         <v>205</v>
       </c>
       <c r="C13" s="78" t="s">
         <v>206</v>
       </c>
-      <c r="D13" s="123" t="s">
+      <c r="D13" s="115" t="s">
         <v>207</v>
       </c>
       <c r="E13" s="79" t="s">
@@ -6030,48 +6054,48 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="40"/>
-      <c r="B14" s="125"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="78" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="124"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="77"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="40"/>
-      <c r="B15" s="125"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="D15" s="124"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="77"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="40"/>
-      <c r="B16" s="125"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="124"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="40"/>
-      <c r="B17" s="125"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="80" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="124"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="81"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="B18" s="126" t="s">
+      <c r="B18" s="118" t="s">
         <v>213</v>
       </c>
       <c r="C18" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="131" t="s">
         <v>214</v>
       </c>
       <c r="E18" s="79" t="s">
@@ -6079,37 +6103,37 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="B19" s="127"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="79" t="s">
         <v>215</v>
       </c>
-      <c r="D19" s="111"/>
+      <c r="D19" s="132"/>
       <c r="E19" s="77"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="B20" s="127"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="79" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="111"/>
+      <c r="D20" s="132"/>
       <c r="E20" s="77"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="B21" s="128"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="D21" s="112"/>
+      <c r="D21" s="133"/>
       <c r="E21" s="77"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="B22" s="113" t="s">
+      <c r="B22" s="121" t="s">
         <v>218</v>
       </c>
       <c r="C22" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="131" t="s">
         <v>220</v>
       </c>
       <c r="E22" s="79" t="s">
@@ -6117,79 +6141,79 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="B23" s="114"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="111"/>
+      <c r="D23" s="132"/>
       <c r="E23" s="79" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B24" s="114"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="82" t="s">
         <v>223</v>
       </c>
-      <c r="D24" s="111"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="77"/>
     </row>
     <row r="25" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B25" s="114"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="82" t="s">
         <v>224</v>
       </c>
-      <c r="D25" s="111"/>
+      <c r="D25" s="132"/>
       <c r="E25" s="77"/>
     </row>
     <row r="26" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B26" s="114"/>
+      <c r="B26" s="122"/>
       <c r="C26" s="82" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="111"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="77"/>
     </row>
     <row r="27" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B27" s="114"/>
+      <c r="B27" s="122"/>
       <c r="C27" s="82" t="s">
         <v>226</v>
       </c>
-      <c r="D27" s="111"/>
+      <c r="D27" s="132"/>
       <c r="E27" s="77"/>
     </row>
     <row r="28" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="82" t="s">
         <v>227</v>
       </c>
-      <c r="D28" s="111"/>
+      <c r="D28" s="132"/>
       <c r="E28" s="77"/>
     </row>
     <row r="29" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B29" s="114"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="82" t="s">
         <v>228</v>
       </c>
-      <c r="D29" s="111"/>
+      <c r="D29" s="132"/>
       <c r="E29" s="77"/>
     </row>
     <row r="30" spans="1:5" s="36" customFormat="1" ht="18" customHeight="1">
-      <c r="B30" s="115"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="82" t="s">
         <v>229</v>
       </c>
-      <c r="D30" s="112"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="77"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="B31" s="113" t="s">
+      <c r="B31" s="121" t="s">
         <v>230</v>
       </c>
       <c r="C31" s="82" t="s">
         <v>231</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="131" t="s">
         <v>232</v>
       </c>
       <c r="E31" s="79" t="s">
@@ -6197,31 +6221,31 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="114"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="82" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="111"/>
+      <c r="D32" s="132"/>
       <c r="E32" s="79" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="B33" s="115"/>
+      <c r="B33" s="123"/>
       <c r="C33" s="82" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="112"/>
+      <c r="D33" s="133"/>
       <c r="E33" s="77"/>
     </row>
     <row r="34" spans="1:5" s="36" customFormat="1">
-      <c r="B34" s="113" t="s">
+      <c r="B34" s="121" t="s">
         <v>237</v>
       </c>
       <c r="C34" s="82" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="131" t="s">
         <v>239</v>
       </c>
       <c r="E34" s="79" t="s">
@@ -6229,50 +6253,50 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="B35" s="114"/>
+      <c r="B35" s="122"/>
       <c r="C35" s="82" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="111"/>
+      <c r="D35" s="132"/>
       <c r="E35" s="79" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="B36" s="114"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="82" t="s">
         <v>243</v>
       </c>
-      <c r="D36" s="111"/>
+      <c r="D36" s="132"/>
       <c r="E36" s="79" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="B37" s="115"/>
+      <c r="B37" s="123"/>
       <c r="C37" s="82"/>
-      <c r="D37" s="112"/>
+      <c r="D37" s="133"/>
       <c r="E37" s="79" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="B42" s="119" t="s">
+      <c r="B42" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="119"/>
-      <c r="E42" s="119"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="40"/>
       <c r="B43" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="121"/>
+      <c r="D43" s="113"/>
       <c r="E43" s="42" t="s">
         <v>12</v>
       </c>
@@ -6282,10 +6306,10 @@
       <c r="B44" s="43">
         <v>1</v>
       </c>
-      <c r="C44" s="108" t="s">
+      <c r="C44" s="129" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="109"/>
+      <c r="D44" s="130"/>
       <c r="E44" s="83" t="s">
         <v>260</v>
       </c>
@@ -6295,10 +6319,10 @@
       <c r="B45" s="43">
         <v>2</v>
       </c>
-      <c r="C45" s="129" t="s">
+      <c r="C45" s="124" t="s">
         <v>258</v>
       </c>
-      <c r="D45" s="130"/>
+      <c r="D45" s="125"/>
       <c r="E45" s="83" t="s">
         <v>247</v>
       </c>
@@ -6308,10 +6332,10 @@
       <c r="B46" s="43">
         <v>3</v>
       </c>
-      <c r="C46" s="129" t="s">
+      <c r="C46" s="124" t="s">
         <v>259</v>
       </c>
-      <c r="D46" s="130"/>
+      <c r="D46" s="125"/>
       <c r="E46" s="83" t="s">
         <v>247</v>
       </c>
@@ -6345,12 +6369,12 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="49"/>
-      <c r="B50" s="116" t="s">
+      <c r="B50" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="49"/>
@@ -6479,12 +6503,12 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="54"/>
-      <c r="B62" s="116" t="s">
+      <c r="B62" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="116"/>
-      <c r="D62" s="116"/>
-      <c r="E62" s="116"/>
+      <c r="C62" s="108"/>
+      <c r="D62" s="108"/>
+      <c r="E62" s="108"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="54"/>
@@ -6518,6 +6542,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="D34:D37"/>
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B3:E3"/>
@@ -6534,12 +6564,6 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="D34:D37"/>
   </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7264,32 +7288,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="149"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="11"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="143" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="150"/>
+      <c r="B2" s="143"/>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:8" s="9" customFormat="1" ht="42" customHeight="1">
-      <c r="A3" s="156" t="s">
+      <c r="A3" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="157"/>
-      <c r="H3" s="157"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
     </row>
     <row r="4" spans="1:8" s="9" customFormat="1">
       <c r="A4" s="13" t="s">
@@ -7318,7 +7342,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="27.75">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="154" t="s">
         <v>113</v>
       </c>
       <c r="B5" s="74" t="s">
@@ -7330,7 +7354,7 @@
       <c r="D5" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="146" t="s">
         <v>218</v>
       </c>
       <c r="F5" s="86" t="s">
@@ -7344,7 +7368,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="27.75">
-      <c r="A6" s="159"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="73" t="s">
         <v>131</v>
       </c>
@@ -7354,7 +7378,7 @@
       <c r="D6" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="154"/>
+      <c r="E6" s="147"/>
       <c r="F6" s="86" t="s">
         <v>263</v>
       </c>
@@ -7366,7 +7390,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.75">
-      <c r="A7" s="159"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="73" t="s">
         <v>132</v>
       </c>
@@ -7376,7 +7400,7 @@
       <c r="D7" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E7" s="154"/>
+      <c r="E7" s="147"/>
       <c r="F7" s="86" t="s">
         <v>264</v>
       </c>
@@ -7388,7 +7412,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="41.25">
-      <c r="A8" s="159"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="73" t="s">
         <v>133</v>
       </c>
@@ -7398,7 +7422,7 @@
       <c r="D8" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E8" s="154"/>
+      <c r="E8" s="147"/>
       <c r="F8" s="86" t="s">
         <v>265</v>
       </c>
@@ -7410,7 +7434,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="41.25">
-      <c r="A9" s="159"/>
+      <c r="A9" s="155"/>
       <c r="B9" s="74" t="s">
         <v>134</v>
       </c>
@@ -7420,7 +7444,7 @@
       <c r="D9" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="154"/>
+      <c r="E9" s="147"/>
       <c r="F9" s="86" t="s">
         <v>266</v>
       </c>
@@ -7432,7 +7456,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="54.75">
-      <c r="A10" s="159"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="74" t="s">
         <v>135</v>
       </c>
@@ -7442,7 +7466,7 @@
       <c r="D10" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E10" s="154"/>
+      <c r="E10" s="147"/>
       <c r="F10" s="86" t="s">
         <v>267</v>
       </c>
@@ -7454,7 +7478,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="27.75">
-      <c r="A11" s="159"/>
+      <c r="A11" s="155"/>
       <c r="B11" s="74" t="s">
         <v>136</v>
       </c>
@@ -7464,7 +7488,7 @@
       <c r="D11" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="154"/>
+      <c r="E11" s="147"/>
       <c r="F11" s="86" t="s">
         <v>268</v>
       </c>
@@ -7476,7 +7500,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="27.75">
-      <c r="A12" s="159"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="74" t="s">
         <v>137</v>
       </c>
@@ -7486,7 +7510,7 @@
       <c r="D12" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="154"/>
+      <c r="E12" s="147"/>
       <c r="F12" s="86" t="s">
         <v>269</v>
       </c>
@@ -7498,7 +7522,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="41.25">
-      <c r="A13" s="159"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="73" t="s">
         <v>138</v>
       </c>
@@ -7508,7 +7532,7 @@
       <c r="D13" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E13" s="154"/>
+      <c r="E13" s="147"/>
       <c r="F13" s="86" t="s">
         <v>270</v>
       </c>
@@ -7520,7 +7544,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="54.75">
-      <c r="A14" s="159"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="73" t="s">
         <v>139</v>
       </c>
@@ -7530,7 +7554,7 @@
       <c r="D14" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E14" s="154"/>
+      <c r="E14" s="147"/>
       <c r="F14" s="86" t="s">
         <v>271</v>
       </c>
@@ -7542,7 +7566,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="67.5">
-      <c r="A15" s="159"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="73" t="s">
         <v>140</v>
       </c>
@@ -7552,7 +7576,7 @@
       <c r="D15" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="154"/>
+      <c r="E15" s="147"/>
       <c r="F15" s="86" t="s">
         <v>272</v>
       </c>
@@ -7564,7 +7588,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="54.75">
-      <c r="A16" s="159"/>
+      <c r="A16" s="155"/>
       <c r="B16" s="73" t="s">
         <v>141</v>
       </c>
@@ -7574,7 +7598,7 @@
       <c r="D16" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="154"/>
+      <c r="E16" s="147"/>
       <c r="F16" s="86" t="s">
         <v>273</v>
       </c>
@@ -7586,7 +7610,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="41.25">
-      <c r="A17" s="159"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="73" t="s">
         <v>142</v>
       </c>
@@ -7596,7 +7620,7 @@
       <c r="D17" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E17" s="154"/>
+      <c r="E17" s="147"/>
       <c r="F17" s="86" t="s">
         <v>274</v>
       </c>
@@ -7608,7 +7632,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="41.25">
-      <c r="A18" s="159"/>
+      <c r="A18" s="155"/>
       <c r="B18" s="73" t="s">
         <v>143</v>
       </c>
@@ -7618,7 +7642,7 @@
       <c r="D18" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="154"/>
+      <c r="E18" s="147"/>
       <c r="F18" s="86" t="s">
         <v>275</v>
       </c>
@@ -7630,7 +7654,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="27.75">
-      <c r="A19" s="159"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="73" t="s">
         <v>144</v>
       </c>
@@ -7640,7 +7664,7 @@
       <c r="D19" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E19" s="154"/>
+      <c r="E19" s="147"/>
       <c r="F19" s="86" t="s">
         <v>276</v>
       </c>
@@ -7652,7 +7676,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="41.25">
-      <c r="A20" s="159"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="73" t="s">
         <v>145</v>
       </c>
@@ -7662,7 +7686,7 @@
       <c r="D20" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="154"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="86" t="s">
         <v>277</v>
       </c>
@@ -7674,7 +7698,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="41.25">
-      <c r="A21" s="159"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="73" t="s">
         <v>146</v>
       </c>
@@ -7684,7 +7708,7 @@
       <c r="D21" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E21" s="154"/>
+      <c r="E21" s="147"/>
       <c r="F21" s="86" t="s">
         <v>278</v>
       </c>
@@ -7696,7 +7720,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="27.75">
-      <c r="A22" s="159"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="73" t="s">
         <v>147</v>
       </c>
@@ -7706,7 +7730,7 @@
       <c r="D22" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E22" s="154"/>
+      <c r="E22" s="147"/>
       <c r="F22" s="86" t="s">
         <v>279</v>
       </c>
@@ -7718,7 +7742,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="27.75">
-      <c r="A23" s="159"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="73" t="s">
         <v>148</v>
       </c>
@@ -7728,7 +7752,7 @@
       <c r="D23" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E23" s="154"/>
+      <c r="E23" s="147"/>
       <c r="F23" s="86" t="s">
         <v>280</v>
       </c>
@@ -7740,7 +7764,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="27.75">
-      <c r="A24" s="159"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="73" t="s">
         <v>149</v>
       </c>
@@ -7750,7 +7774,7 @@
       <c r="D24" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E24" s="154"/>
+      <c r="E24" s="147"/>
       <c r="F24" s="86" t="s">
         <v>281</v>
       </c>
@@ -7762,7 +7786,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="27.75">
-      <c r="A25" s="159"/>
+      <c r="A25" s="155"/>
       <c r="B25" s="73" t="s">
         <v>150</v>
       </c>
@@ -7772,7 +7796,7 @@
       <c r="D25" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E25" s="154"/>
+      <c r="E25" s="147"/>
       <c r="F25" s="86" t="s">
         <v>282</v>
       </c>
@@ -7784,7 +7808,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="27.75">
-      <c r="A26" s="159"/>
+      <c r="A26" s="155"/>
       <c r="B26" s="73" t="s">
         <v>151</v>
       </c>
@@ -7794,7 +7818,7 @@
       <c r="D26" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E26" s="154"/>
+      <c r="E26" s="147"/>
       <c r="F26" s="86" t="s">
         <v>283</v>
       </c>
@@ -7806,7 +7830,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="41.25">
-      <c r="A27" s="159"/>
+      <c r="A27" s="155"/>
       <c r="B27" s="73" t="s">
         <v>152</v>
       </c>
@@ -7816,7 +7840,7 @@
       <c r="D27" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="154"/>
+      <c r="E27" s="147"/>
       <c r="F27" s="86" t="s">
         <v>284</v>
       </c>
@@ -7828,7 +7852,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="27.75">
-      <c r="A28" s="159"/>
+      <c r="A28" s="155"/>
       <c r="B28" s="73" t="s">
         <v>153</v>
       </c>
@@ -7838,7 +7862,7 @@
       <c r="D28" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E28" s="154"/>
+      <c r="E28" s="147"/>
       <c r="F28" s="86" t="s">
         <v>285</v>
       </c>
@@ -7850,7 +7874,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="27.75">
-      <c r="A29" s="159"/>
+      <c r="A29" s="155"/>
       <c r="B29" s="73" t="s">
         <v>154</v>
       </c>
@@ -7860,7 +7884,7 @@
       <c r="D29" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="154"/>
+      <c r="E29" s="147"/>
       <c r="F29" s="86" t="s">
         <v>286</v>
       </c>
@@ -7872,7 +7896,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="27.75">
-      <c r="A30" s="159"/>
+      <c r="A30" s="155"/>
       <c r="B30" s="73" t="s">
         <v>155</v>
       </c>
@@ -7882,7 +7906,7 @@
       <c r="D30" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E30" s="154"/>
+      <c r="E30" s="147"/>
       <c r="F30" s="86" t="s">
         <v>287</v>
       </c>
@@ -7894,7 +7918,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="27.75">
-      <c r="A31" s="159"/>
+      <c r="A31" s="155"/>
       <c r="B31" s="73" t="s">
         <v>156</v>
       </c>
@@ -7904,7 +7928,7 @@
       <c r="D31" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E31" s="154"/>
+      <c r="E31" s="147"/>
       <c r="F31" s="86" t="s">
         <v>288</v>
       </c>
@@ -7916,7 +7940,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="41.25">
-      <c r="A32" s="159"/>
+      <c r="A32" s="155"/>
       <c r="B32" s="73" t="s">
         <v>157</v>
       </c>
@@ -7926,7 +7950,7 @@
       <c r="D32" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E32" s="154"/>
+      <c r="E32" s="147"/>
       <c r="F32" s="86" t="s">
         <v>289</v>
       </c>
@@ -7938,7 +7962,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="54.75">
-      <c r="A33" s="159"/>
+      <c r="A33" s="155"/>
       <c r="B33" s="73" t="s">
         <v>158</v>
       </c>
@@ -7948,7 +7972,7 @@
       <c r="D33" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="154"/>
+      <c r="E33" s="147"/>
       <c r="F33" s="86" t="s">
         <v>290</v>
       </c>
@@ -7960,7 +7984,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="27.75">
-      <c r="A34" s="159"/>
+      <c r="A34" s="155"/>
       <c r="B34" s="73" t="s">
         <v>159</v>
       </c>
@@ -7970,7 +7994,7 @@
       <c r="D34" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E34" s="154"/>
+      <c r="E34" s="147"/>
       <c r="F34" s="86" t="s">
         <v>291</v>
       </c>
@@ -7982,7 +8006,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="41.25">
-      <c r="A35" s="159"/>
+      <c r="A35" s="155"/>
       <c r="B35" s="73" t="s">
         <v>160</v>
       </c>
@@ -7992,7 +8016,7 @@
       <c r="D35" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E35" s="154"/>
+      <c r="E35" s="147"/>
       <c r="F35" s="86" t="s">
         <v>292</v>
       </c>
@@ -8004,7 +8028,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="54.75">
-      <c r="A36" s="159"/>
+      <c r="A36" s="155"/>
       <c r="B36" s="73" t="s">
         <v>161</v>
       </c>
@@ -8014,7 +8038,7 @@
       <c r="D36" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="154"/>
+      <c r="E36" s="147"/>
       <c r="F36" s="86" t="s">
         <v>293</v>
       </c>
@@ -8026,7 +8050,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="27.75">
-      <c r="A37" s="159"/>
+      <c r="A37" s="155"/>
       <c r="B37" s="73" t="s">
         <v>162</v>
       </c>
@@ -8036,7 +8060,7 @@
       <c r="D37" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E37" s="154"/>
+      <c r="E37" s="147"/>
       <c r="F37" s="86" t="s">
         <v>294</v>
       </c>
@@ -8048,7 +8072,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
-      <c r="A38" s="159"/>
+      <c r="A38" s="155"/>
       <c r="B38" s="73" t="s">
         <v>163</v>
       </c>
@@ -8058,7 +8082,7 @@
       <c r="D38" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E38" s="154"/>
+      <c r="E38" s="147"/>
       <c r="F38" s="86" t="s">
         <v>295</v>
       </c>
@@ -8070,7 +8094,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="27.75">
-      <c r="A39" s="159"/>
+      <c r="A39" s="155"/>
       <c r="B39" s="73" t="s">
         <v>164</v>
       </c>
@@ -8080,7 +8104,7 @@
       <c r="D39" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E39" s="154"/>
+      <c r="E39" s="147"/>
       <c r="F39" s="86" t="s">
         <v>296</v>
       </c>
@@ -8092,7 +8116,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="41.25">
-      <c r="A40" s="159"/>
+      <c r="A40" s="155"/>
       <c r="B40" s="73" t="s">
         <v>165</v>
       </c>
@@ -8102,7 +8126,7 @@
       <c r="D40" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="154"/>
+      <c r="E40" s="147"/>
       <c r="F40" s="86" t="s">
         <v>297</v>
       </c>
@@ -8114,7 +8138,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="27.75">
-      <c r="A41" s="159"/>
+      <c r="A41" s="155"/>
       <c r="B41" s="73" t="s">
         <v>166</v>
       </c>
@@ -8124,7 +8148,7 @@
       <c r="D41" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E41" s="154"/>
+      <c r="E41" s="147"/>
       <c r="F41" s="86" t="s">
         <v>298</v>
       </c>
@@ -8136,7 +8160,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="27.75">
-      <c r="A42" s="159"/>
+      <c r="A42" s="155"/>
       <c r="B42" s="73" t="s">
         <v>167</v>
       </c>
@@ -8146,7 +8170,7 @@
       <c r="D42" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E42" s="154"/>
+      <c r="E42" s="147"/>
       <c r="F42" s="86" t="s">
         <v>299</v>
       </c>
@@ -8158,7 +8182,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="40.5">
-      <c r="A43" s="159"/>
+      <c r="A43" s="155"/>
       <c r="B43" s="73" t="s">
         <v>168</v>
       </c>
@@ -8168,7 +8192,7 @@
       <c r="D43" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E43" s="154"/>
+      <c r="E43" s="147"/>
       <c r="F43" s="86" t="s">
         <v>300</v>
       </c>
@@ -8180,7 +8204,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="40.5">
-      <c r="A44" s="159"/>
+      <c r="A44" s="155"/>
       <c r="B44" s="73" t="s">
         <v>169</v>
       </c>
@@ -8190,7 +8214,7 @@
       <c r="D44" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E44" s="154"/>
+      <c r="E44" s="147"/>
       <c r="F44" s="86" t="s">
         <v>301</v>
       </c>
@@ -8202,7 +8226,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="40.5">
-      <c r="A45" s="159"/>
+      <c r="A45" s="155"/>
       <c r="B45" s="73" t="s">
         <v>170</v>
       </c>
@@ -8212,7 +8236,7 @@
       <c r="D45" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E45" s="154"/>
+      <c r="E45" s="147"/>
       <c r="F45" s="86" t="s">
         <v>302</v>
       </c>
@@ -8224,7 +8248,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="40.5">
-      <c r="A46" s="159"/>
+      <c r="A46" s="155"/>
       <c r="B46" s="73" t="s">
         <v>171</v>
       </c>
@@ -8234,7 +8258,7 @@
       <c r="D46" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E46" s="154"/>
+      <c r="E46" s="147"/>
       <c r="F46" s="86" t="s">
         <v>303</v>
       </c>
@@ -8246,7 +8270,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="40.5">
-      <c r="A47" s="159"/>
+      <c r="A47" s="155"/>
       <c r="B47" s="73" t="s">
         <v>172</v>
       </c>
@@ -8256,7 +8280,7 @@
       <c r="D47" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E47" s="154"/>
+      <c r="E47" s="147"/>
       <c r="F47" s="86" t="s">
         <v>304</v>
       </c>
@@ -8268,7 +8292,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="41.25">
-      <c r="A48" s="159"/>
+      <c r="A48" s="155"/>
       <c r="B48" s="73" t="s">
         <v>173</v>
       </c>
@@ -8278,7 +8302,7 @@
       <c r="D48" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="154"/>
+      <c r="E48" s="147"/>
       <c r="F48" s="86" t="s">
         <v>305</v>
       </c>
@@ -8290,7 +8314,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="54.75">
-      <c r="A49" s="159"/>
+      <c r="A49" s="155"/>
       <c r="B49" s="73" t="s">
         <v>174</v>
       </c>
@@ -8300,7 +8324,7 @@
       <c r="D49" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E49" s="154"/>
+      <c r="E49" s="147"/>
       <c r="F49" s="86" t="s">
         <v>306</v>
       </c>
@@ -8312,7 +8336,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="41.25">
-      <c r="A50" s="159"/>
+      <c r="A50" s="155"/>
       <c r="B50" s="73" t="s">
         <v>175</v>
       </c>
@@ -8322,7 +8346,7 @@
       <c r="D50" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="154"/>
+      <c r="E50" s="147"/>
       <c r="F50" s="86" t="s">
         <v>307</v>
       </c>
@@ -8334,7 +8358,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="41.25">
-      <c r="A51" s="159"/>
+      <c r="A51" s="155"/>
       <c r="B51" s="73" t="s">
         <v>176</v>
       </c>
@@ -8344,7 +8368,7 @@
       <c r="D51" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E51" s="154"/>
+      <c r="E51" s="147"/>
       <c r="F51" s="86" t="s">
         <v>308</v>
       </c>
@@ -8356,7 +8380,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="54">
-      <c r="A52" s="159"/>
+      <c r="A52" s="155"/>
       <c r="B52" s="73" t="s">
         <v>177</v>
       </c>
@@ -8366,7 +8390,7 @@
       <c r="D52" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E52" s="154"/>
+      <c r="E52" s="147"/>
       <c r="F52" s="87" t="s">
         <v>309</v>
       </c>
@@ -8378,7 +8402,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="40.5">
-      <c r="A53" s="159"/>
+      <c r="A53" s="155"/>
       <c r="B53" s="73" t="s">
         <v>178</v>
       </c>
@@ -8388,7 +8412,7 @@
       <c r="D53" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E53" s="154"/>
+      <c r="E53" s="147"/>
       <c r="F53" s="86" t="s">
         <v>310</v>
       </c>
@@ -8400,7 +8424,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="27.75">
-      <c r="A54" s="159"/>
+      <c r="A54" s="155"/>
       <c r="B54" s="73" t="s">
         <v>179</v>
       </c>
@@ -8410,7 +8434,7 @@
       <c r="D54" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="154"/>
+      <c r="E54" s="147"/>
       <c r="F54" s="86" t="s">
         <v>311</v>
       </c>
@@ -8422,7 +8446,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="27.75">
-      <c r="A55" s="159"/>
+      <c r="A55" s="155"/>
       <c r="B55" s="73" t="s">
         <v>180</v>
       </c>
@@ -8432,7 +8456,7 @@
       <c r="D55" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E55" s="154"/>
+      <c r="E55" s="147"/>
       <c r="F55" s="86" t="s">
         <v>312</v>
       </c>
@@ -8444,7 +8468,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="27.75">
-      <c r="A56" s="159"/>
+      <c r="A56" s="155"/>
       <c r="B56" s="73" t="s">
         <v>181</v>
       </c>
@@ -8454,7 +8478,7 @@
       <c r="D56" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E56" s="154"/>
+      <c r="E56" s="147"/>
       <c r="F56" s="86" t="s">
         <v>313</v>
       </c>
@@ -8466,7 +8490,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="40.5">
-      <c r="A57" s="159"/>
+      <c r="A57" s="155"/>
       <c r="B57" s="73" t="s">
         <v>182</v>
       </c>
@@ -8476,7 +8500,7 @@
       <c r="D57" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E57" s="154"/>
+      <c r="E57" s="147"/>
       <c r="F57" s="86" t="s">
         <v>314</v>
       </c>
@@ -8488,7 +8512,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="27.75">
-      <c r="A58" s="159"/>
+      <c r="A58" s="155"/>
       <c r="B58" s="73" t="s">
         <v>183</v>
       </c>
@@ -8498,7 +8522,7 @@
       <c r="D58" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E58" s="154"/>
+      <c r="E58" s="147"/>
       <c r="F58" s="86" t="s">
         <v>315</v>
       </c>
@@ -8510,7 +8534,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="54.75">
-      <c r="A59" s="159"/>
+      <c r="A59" s="155"/>
       <c r="B59" s="73" t="s">
         <v>184</v>
       </c>
@@ -8520,7 +8544,7 @@
       <c r="D59" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E59" s="154"/>
+      <c r="E59" s="147"/>
       <c r="F59" s="86" t="s">
         <v>316</v>
       </c>
@@ -8532,7 +8556,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="27.75">
-      <c r="A60" s="159"/>
+      <c r="A60" s="155"/>
       <c r="B60" s="73" t="s">
         <v>185</v>
       </c>
@@ -8542,7 +8566,7 @@
       <c r="D60" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E60" s="154"/>
+      <c r="E60" s="147"/>
       <c r="F60" s="86" t="s">
         <v>317</v>
       </c>
@@ -8554,7 +8578,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="41.25">
-      <c r="A61" s="159"/>
+      <c r="A61" s="155"/>
       <c r="B61" s="73" t="s">
         <v>186</v>
       </c>
@@ -8564,7 +8588,7 @@
       <c r="D61" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E61" s="154"/>
+      <c r="E61" s="147"/>
       <c r="F61" s="86" t="s">
         <v>318</v>
       </c>
@@ -8576,7 +8600,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="54.75">
-      <c r="A62" s="159"/>
+      <c r="A62" s="155"/>
       <c r="B62" s="73" t="s">
         <v>187</v>
       </c>
@@ -8586,7 +8610,7 @@
       <c r="D62" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E62" s="154"/>
+      <c r="E62" s="147"/>
       <c r="F62" s="86" t="s">
         <v>319</v>
       </c>
@@ -8598,7 +8622,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="40.5">
-      <c r="A63" s="159"/>
+      <c r="A63" s="155"/>
       <c r="B63" s="73" t="s">
         <v>188</v>
       </c>
@@ -8608,7 +8632,7 @@
       <c r="D63" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E63" s="154"/>
+      <c r="E63" s="147"/>
       <c r="F63" s="86" t="s">
         <v>320</v>
       </c>
@@ -8620,7 +8644,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="27.75">
-      <c r="A64" s="159"/>
+      <c r="A64" s="155"/>
       <c r="B64" s="73" t="s">
         <v>189</v>
       </c>
@@ -8630,7 +8654,7 @@
       <c r="D64" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E64" s="154"/>
+      <c r="E64" s="147"/>
       <c r="F64" s="86" t="s">
         <v>321</v>
       </c>
@@ -8642,7 +8666,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="41.25">
-      <c r="A65" s="158" t="s">
+      <c r="A65" s="154" t="s">
         <v>114</v>
       </c>
       <c r="B65" s="73" t="s">
@@ -8654,7 +8678,7 @@
       <c r="D65" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E65" s="154"/>
+      <c r="E65" s="147"/>
       <c r="F65" s="86" t="s">
         <v>322</v>
       </c>
@@ -8666,7 +8690,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="27.75">
-      <c r="A66" s="158"/>
+      <c r="A66" s="154"/>
       <c r="B66" s="73" t="s">
         <v>191</v>
       </c>
@@ -8676,7 +8700,7 @@
       <c r="D66" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E66" s="154"/>
+      <c r="E66" s="147"/>
       <c r="F66" s="86" t="s">
         <v>323</v>
       </c>
@@ -8688,7 +8712,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="27.75">
-      <c r="A67" s="158"/>
+      <c r="A67" s="154"/>
       <c r="B67" s="73" t="s">
         <v>192</v>
       </c>
@@ -8698,7 +8722,7 @@
       <c r="D67" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E67" s="154"/>
+      <c r="E67" s="147"/>
       <c r="F67" s="86" t="s">
         <v>324</v>
       </c>
@@ -8710,7 +8734,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="27">
-      <c r="A68" s="158"/>
+      <c r="A68" s="154"/>
       <c r="B68" s="73" t="s">
         <v>193</v>
       </c>
@@ -8720,7 +8744,7 @@
       <c r="D68" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E68" s="154"/>
+      <c r="E68" s="147"/>
       <c r="F68" s="87" t="s">
         <v>325</v>
       </c>
@@ -8732,7 +8756,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="27">
-      <c r="A69" s="158"/>
+      <c r="A69" s="154"/>
       <c r="B69" s="73" t="s">
         <v>194</v>
       </c>
@@ -8742,7 +8766,7 @@
       <c r="D69" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="154"/>
+      <c r="E69" s="147"/>
       <c r="F69" s="87" t="s">
         <v>326</v>
       </c>
@@ -8754,7 +8778,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="27.75">
-      <c r="A70" s="158"/>
+      <c r="A70" s="154"/>
       <c r="B70" s="73" t="s">
         <v>195</v>
       </c>
@@ -8764,7 +8788,7 @@
       <c r="D70" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="E70" s="154"/>
+      <c r="E70" s="147"/>
       <c r="F70" s="86" t="s">
         <v>327</v>
       </c>
@@ -8776,7 +8800,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="27.75">
-      <c r="A71" s="158"/>
+      <c r="A71" s="154"/>
       <c r="B71" s="73" t="s">
         <v>196</v>
       </c>
@@ -8786,7 +8810,7 @@
       <c r="D71" s="72" t="s">
         <v>204</v>
       </c>
-      <c r="E71" s="154"/>
+      <c r="E71" s="147"/>
       <c r="F71" s="86" t="s">
         <v>328</v>
       </c>
@@ -8810,7 +8834,7 @@
       <c r="D72" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E72" s="154"/>
+      <c r="E72" s="147"/>
       <c r="F72" s="86" t="s">
         <v>329</v>
       </c>
@@ -8832,7 +8856,7 @@
       <c r="D73" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E73" s="154"/>
+      <c r="E73" s="147"/>
       <c r="F73" s="86" t="s">
         <v>330</v>
       </c>
@@ -8854,7 +8878,7 @@
       <c r="D74" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E74" s="154"/>
+      <c r="E74" s="147"/>
       <c r="F74" s="86" t="s">
         <v>331</v>
       </c>
@@ -8878,7 +8902,7 @@
       <c r="D75" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E75" s="154"/>
+      <c r="E75" s="147"/>
       <c r="F75" s="86" t="s">
         <v>332</v>
       </c>
@@ -8900,7 +8924,7 @@
       <c r="D76" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E76" s="154"/>
+      <c r="E76" s="147"/>
       <c r="F76" s="88" t="s">
         <v>333</v>
       </c>
@@ -8924,7 +8948,7 @@
       <c r="D77" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="154"/>
+      <c r="E77" s="147"/>
       <c r="F77" s="86" t="s">
         <v>334</v>
       </c>
@@ -8946,7 +8970,7 @@
       <c r="D78" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E78" s="154"/>
+      <c r="E78" s="147"/>
       <c r="F78" s="88" t="s">
         <v>335</v>
       </c>
@@ -8968,7 +8992,7 @@
       <c r="D79" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E79" s="154"/>
+      <c r="E79" s="147"/>
       <c r="F79" s="87" t="s">
         <v>336</v>
       </c>
@@ -8992,7 +9016,7 @@
       <c r="D80" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E80" s="154"/>
+      <c r="E80" s="147"/>
       <c r="F80" s="87" t="s">
         <v>337</v>
       </c>
@@ -9014,7 +9038,7 @@
       <c r="D81" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E81" s="154"/>
+      <c r="E81" s="147"/>
       <c r="F81" s="87" t="s">
         <v>338</v>
       </c>
@@ -9036,7 +9060,7 @@
       <c r="D82" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E82" s="154"/>
+      <c r="E82" s="147"/>
       <c r="F82" s="87" t="s">
         <v>339</v>
       </c>
@@ -9058,7 +9082,7 @@
       <c r="D83" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E83" s="154"/>
+      <c r="E83" s="147"/>
       <c r="F83" s="87" t="s">
         <v>340</v>
       </c>
@@ -9080,7 +9104,7 @@
       <c r="D84" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E84" s="154"/>
+      <c r="E84" s="147"/>
       <c r="F84" s="87" t="s">
         <v>341</v>
       </c>
@@ -9102,7 +9126,7 @@
       <c r="D85" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E85" s="154"/>
+      <c r="E85" s="147"/>
       <c r="F85" s="87" t="s">
         <v>342</v>
       </c>
@@ -9126,7 +9150,7 @@
       <c r="D86" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="154"/>
+      <c r="E86" s="147"/>
       <c r="F86" s="87" t="s">
         <v>343</v>
       </c>
@@ -9148,7 +9172,7 @@
       <c r="D87" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E87" s="154"/>
+      <c r="E87" s="147"/>
       <c r="F87" s="87" t="s">
         <v>344</v>
       </c>
@@ -9172,7 +9196,7 @@
       <c r="D88" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E88" s="154"/>
+      <c r="E88" s="147"/>
       <c r="F88" s="87" t="s">
         <v>345</v>
       </c>
@@ -9194,7 +9218,7 @@
       <c r="D89" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E89" s="154"/>
+      <c r="E89" s="147"/>
       <c r="F89" s="87" t="s">
         <v>346</v>
       </c>
@@ -9216,7 +9240,7 @@
       <c r="D90" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E90" s="154"/>
+      <c r="E90" s="147"/>
       <c r="F90" s="87" t="s">
         <v>347</v>
       </c>
@@ -9238,7 +9262,7 @@
       <c r="D91" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E91" s="154"/>
+      <c r="E91" s="147"/>
       <c r="F91" s="87" t="s">
         <v>348</v>
       </c>
@@ -9262,7 +9286,7 @@
       <c r="D92" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E92" s="155"/>
+      <c r="E92" s="148"/>
       <c r="F92" s="88" t="s">
         <v>349</v>
       </c>
@@ -9284,7 +9308,7 @@
       <c r="D93" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E93" s="160" t="s">
+      <c r="E93" s="156" t="s">
         <v>246</v>
       </c>
       <c r="F93" s="104" t="s">
@@ -9310,7 +9334,7 @@
       <c r="D94" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E94" s="161"/>
+      <c r="E94" s="157"/>
       <c r="F94" s="104" t="s">
         <v>454</v>
       </c>
@@ -9332,7 +9356,7 @@
       <c r="D95" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E95" s="161"/>
+      <c r="E95" s="157"/>
       <c r="F95" s="104" t="s">
         <v>455</v>
       </c>
@@ -9354,7 +9378,7 @@
       <c r="D96" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E96" s="161"/>
+      <c r="E96" s="157"/>
       <c r="F96" s="104" t="s">
         <v>456</v>
       </c>
@@ -9378,7 +9402,7 @@
       <c r="D97" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E97" s="161"/>
+      <c r="E97" s="157"/>
       <c r="F97" s="104" t="s">
         <v>457</v>
       </c>
@@ -9400,7 +9424,7 @@
       <c r="D98" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E98" s="161"/>
+      <c r="E98" s="157"/>
       <c r="F98" s="104" t="s">
         <v>458</v>
       </c>
@@ -9422,7 +9446,7 @@
       <c r="D99" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E99" s="161"/>
+      <c r="E99" s="157"/>
       <c r="F99" s="104" t="s">
         <v>459</v>
       </c>
@@ -9446,7 +9470,7 @@
       <c r="D100" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E100" s="161"/>
+      <c r="E100" s="157"/>
       <c r="F100" s="104" t="s">
         <v>460</v>
       </c>
@@ -9468,7 +9492,7 @@
       <c r="D101" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E101" s="161"/>
+      <c r="E101" s="157"/>
       <c r="F101" s="104" t="s">
         <v>461</v>
       </c>
@@ -9490,7 +9514,7 @@
       <c r="D102" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E102" s="161"/>
+      <c r="E102" s="157"/>
       <c r="F102" s="104" t="s">
         <v>462</v>
       </c>
@@ -9514,7 +9538,7 @@
       <c r="D103" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E103" s="161"/>
+      <c r="E103" s="157"/>
       <c r="F103" s="103" t="s">
         <v>463</v>
       </c>
@@ -9536,7 +9560,7 @@
       <c r="D104" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E104" s="161"/>
+      <c r="E104" s="157"/>
       <c r="F104" s="104" t="s">
         <v>464</v>
       </c>
@@ -9560,7 +9584,7 @@
       <c r="D105" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E105" s="161"/>
+      <c r="E105" s="157"/>
       <c r="F105" s="104" t="s">
         <v>465</v>
       </c>
@@ -9582,7 +9606,7 @@
       <c r="D106" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E106" s="162"/>
+      <c r="E106" s="158"/>
       <c r="F106" s="104" t="s">
         <v>466</v>
       </c>
@@ -9604,7 +9628,7 @@
       <c r="D107" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="E107" s="142" t="s">
+      <c r="E107" s="163" t="s">
         <v>249</v>
       </c>
       <c r="F107" s="104" t="s">
@@ -9618,7 +9642,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="41.25">
-      <c r="A108" s="145" t="s">
+      <c r="A108" s="151" t="s">
         <v>394</v>
       </c>
       <c r="B108" s="91" t="s">
@@ -9630,7 +9654,7 @@
       <c r="D108" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E108" s="142"/>
+      <c r="E108" s="163"/>
       <c r="F108" s="104" t="s">
         <v>468</v>
       </c>
@@ -9642,7 +9666,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="27.75">
-      <c r="A109" s="147"/>
+      <c r="A109" s="152"/>
       <c r="B109" s="91" t="s">
         <v>396</v>
       </c>
@@ -9652,7 +9676,7 @@
       <c r="D109" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E109" s="142"/>
+      <c r="E109" s="163"/>
       <c r="F109" s="104" t="s">
         <v>469</v>
       </c>
@@ -9676,7 +9700,7 @@
       <c r="D110" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E110" s="142"/>
+      <c r="E110" s="163"/>
       <c r="F110" s="104" t="s">
         <v>470</v>
       </c>
@@ -9688,7 +9712,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="41.25">
-      <c r="A111" s="145" t="s">
+      <c r="A111" s="151" t="s">
         <v>399</v>
       </c>
       <c r="B111" s="91" t="s">
@@ -9700,7 +9724,7 @@
       <c r="D111" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E111" s="142"/>
+      <c r="E111" s="163"/>
       <c r="F111" s="104" t="s">
         <v>471</v>
       </c>
@@ -9712,7 +9736,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="41.25">
-      <c r="A112" s="147"/>
+      <c r="A112" s="152"/>
       <c r="B112" s="91" t="s">
         <v>396</v>
       </c>
@@ -9722,7 +9746,7 @@
       <c r="D112" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E112" s="142"/>
+      <c r="E112" s="163"/>
       <c r="F112" s="104" t="s">
         <v>472</v>
       </c>
@@ -9734,7 +9758,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="41.25">
-      <c r="A113" s="145" t="s">
+      <c r="A113" s="151" t="s">
         <v>240</v>
       </c>
       <c r="B113" s="91" t="s">
@@ -9746,7 +9770,7 @@
       <c r="D113" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E113" s="142"/>
+      <c r="E113" s="163"/>
       <c r="F113" s="104" t="s">
         <v>473</v>
       </c>
@@ -9758,7 +9782,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="41.25">
-      <c r="A114" s="146"/>
+      <c r="A114" s="153"/>
       <c r="B114" s="91" t="s">
         <v>402</v>
       </c>
@@ -9768,7 +9792,7 @@
       <c r="D114" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E114" s="142"/>
+      <c r="E114" s="163"/>
       <c r="F114" s="104" t="s">
         <v>474</v>
       </c>
@@ -9780,7 +9804,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="40.5">
-      <c r="A115" s="146"/>
+      <c r="A115" s="153"/>
       <c r="B115" s="91" t="s">
         <v>403</v>
       </c>
@@ -9790,7 +9814,7 @@
       <c r="D115" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E115" s="142"/>
+      <c r="E115" s="163"/>
       <c r="F115" s="104" t="s">
         <v>475</v>
       </c>
@@ -9802,7 +9826,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="40.5">
-      <c r="A116" s="146"/>
+      <c r="A116" s="153"/>
       <c r="B116" s="91" t="s">
         <v>404</v>
       </c>
@@ -9812,7 +9836,7 @@
       <c r="D116" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E116" s="142"/>
+      <c r="E116" s="163"/>
       <c r="F116" s="104" t="s">
         <v>476</v>
       </c>
@@ -9824,7 +9848,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="41.25">
-      <c r="A117" s="146"/>
+      <c r="A117" s="153"/>
       <c r="B117" s="91" t="s">
         <v>405</v>
       </c>
@@ -9834,7 +9858,7 @@
       <c r="D117" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E117" s="142"/>
+      <c r="E117" s="163"/>
       <c r="F117" s="104" t="s">
         <v>477</v>
       </c>
@@ -9846,7 +9870,7 @@
       </c>
     </row>
     <row r="118" spans="1:8" ht="27.75">
-      <c r="A118" s="146"/>
+      <c r="A118" s="153"/>
       <c r="B118" s="91" t="s">
         <v>406</v>
       </c>
@@ -9856,7 +9880,7 @@
       <c r="D118" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E118" s="142"/>
+      <c r="E118" s="163"/>
       <c r="F118" s="104" t="s">
         <v>478</v>
       </c>
@@ -9868,7 +9892,7 @@
       </c>
     </row>
     <row r="119" spans="1:8" ht="41.25">
-      <c r="A119" s="146"/>
+      <c r="A119" s="153"/>
       <c r="B119" s="91" t="s">
         <v>407</v>
       </c>
@@ -9878,7 +9902,7 @@
       <c r="D119" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E119" s="142" t="s">
+      <c r="E119" s="163" t="s">
         <v>252</v>
       </c>
       <c r="F119" s="104" t="s">
@@ -9892,7 +9916,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="27.75">
-      <c r="A120" s="146"/>
+      <c r="A120" s="153"/>
       <c r="B120" s="91" t="s">
         <v>408</v>
       </c>
@@ -9902,7 +9926,7 @@
       <c r="D120" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E120" s="142"/>
+      <c r="E120" s="163"/>
       <c r="F120" s="104" t="s">
         <v>480</v>
       </c>
@@ -9914,7 +9938,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="41.25">
-      <c r="A121" s="146"/>
+      <c r="A121" s="153"/>
       <c r="B121" s="91" t="s">
         <v>409</v>
       </c>
@@ -9924,7 +9948,7 @@
       <c r="D121" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E121" s="142"/>
+      <c r="E121" s="163"/>
       <c r="F121" s="104" t="s">
         <v>481</v>
       </c>
@@ -9936,7 +9960,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="41.25">
-      <c r="A122" s="146"/>
+      <c r="A122" s="153"/>
       <c r="B122" s="91" t="s">
         <v>410</v>
       </c>
@@ -9946,7 +9970,7 @@
       <c r="D122" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E122" s="142"/>
+      <c r="E122" s="163"/>
       <c r="F122" s="104" t="s">
         <v>482</v>
       </c>
@@ -9958,7 +9982,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="41.25">
-      <c r="A123" s="146"/>
+      <c r="A123" s="153"/>
       <c r="B123" s="91" t="s">
         <v>411</v>
       </c>
@@ -9968,7 +9992,7 @@
       <c r="D123" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E123" s="142"/>
+      <c r="E123" s="163"/>
       <c r="F123" s="104" t="s">
         <v>483</v>
       </c>
@@ -9980,7 +10004,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="41.25">
-      <c r="A124" s="146"/>
+      <c r="A124" s="153"/>
       <c r="B124" s="91" t="s">
         <v>412</v>
       </c>
@@ -9990,7 +10014,7 @@
       <c r="D124" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E124" s="142"/>
+      <c r="E124" s="163"/>
       <c r="F124" s="104" t="s">
         <v>484</v>
       </c>
@@ -10002,7 +10026,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="41.25">
-      <c r="A125" s="147"/>
+      <c r="A125" s="152"/>
       <c r="B125" s="91" t="s">
         <v>413</v>
       </c>
@@ -10012,7 +10036,7 @@
       <c r="D125" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E125" s="142"/>
+      <c r="E125" s="163"/>
       <c r="F125" s="104" t="s">
         <v>485</v>
       </c>
@@ -10024,7 +10048,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="27.75">
-      <c r="A126" s="145" t="s">
+      <c r="A126" s="151" t="s">
         <v>242</v>
       </c>
       <c r="B126" s="91" t="s">
@@ -10036,7 +10060,7 @@
       <c r="D126" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E126" s="142"/>
+      <c r="E126" s="163"/>
       <c r="F126" s="104" t="s">
         <v>486</v>
       </c>
@@ -10048,7 +10072,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="27.75">
-      <c r="A127" s="146"/>
+      <c r="A127" s="153"/>
       <c r="B127" s="91" t="s">
         <v>407</v>
       </c>
@@ -10058,7 +10082,7 @@
       <c r="D127" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E127" s="142"/>
+      <c r="E127" s="163"/>
       <c r="F127" s="104" t="s">
         <v>487</v>
       </c>
@@ -10070,7 +10094,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="41.25">
-      <c r="A128" s="146"/>
+      <c r="A128" s="153"/>
       <c r="B128" s="91" t="s">
         <v>408</v>
       </c>
@@ -10080,7 +10104,7 @@
       <c r="D128" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E128" s="142"/>
+      <c r="E128" s="163"/>
       <c r="F128" s="104" t="s">
         <v>488</v>
       </c>
@@ -10092,7 +10116,7 @@
       </c>
     </row>
     <row r="129" spans="1:8" ht="27.75">
-      <c r="A129" s="146"/>
+      <c r="A129" s="153"/>
       <c r="B129" s="91" t="s">
         <v>409</v>
       </c>
@@ -10102,7 +10126,7 @@
       <c r="D129" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E129" s="142"/>
+      <c r="E129" s="163"/>
       <c r="F129" s="104" t="s">
         <v>478</v>
       </c>
@@ -10114,7 +10138,7 @@
       </c>
     </row>
     <row r="130" spans="1:8" ht="27">
-      <c r="A130" s="146"/>
+      <c r="A130" s="153"/>
       <c r="B130" s="91" t="s">
         <v>410</v>
       </c>
@@ -10124,7 +10148,7 @@
       <c r="D130" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E130" s="142" t="s">
+      <c r="E130" s="163" t="s">
         <v>255</v>
       </c>
       <c r="F130" s="104" t="s">
@@ -10138,7 +10162,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="27.75">
-      <c r="A131" s="146"/>
+      <c r="A131" s="153"/>
       <c r="B131" s="91" t="s">
         <v>415</v>
       </c>
@@ -10148,7 +10172,7 @@
       <c r="D131" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E131" s="142"/>
+      <c r="E131" s="163"/>
       <c r="F131" s="104" t="s">
         <v>490</v>
       </c>
@@ -10160,7 +10184,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="27.75">
-      <c r="A132" s="146"/>
+      <c r="A132" s="153"/>
       <c r="B132" s="91" t="s">
         <v>416</v>
       </c>
@@ -10170,7 +10194,7 @@
       <c r="D132" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E132" s="142"/>
+      <c r="E132" s="163"/>
       <c r="F132" s="104" t="s">
         <v>491</v>
       </c>
@@ -10182,7 +10206,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="27.75">
-      <c r="A133" s="146"/>
+      <c r="A133" s="153"/>
       <c r="B133" s="91" t="s">
         <v>417</v>
       </c>
@@ -10192,7 +10216,7 @@
       <c r="D133" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E133" s="142"/>
+      <c r="E133" s="163"/>
       <c r="F133" s="104" t="s">
         <v>492</v>
       </c>
@@ -10204,7 +10228,7 @@
       </c>
     </row>
     <row r="134" spans="1:8" ht="40.5">
-      <c r="A134" s="146"/>
+      <c r="A134" s="153"/>
       <c r="B134" s="91" t="s">
         <v>418</v>
       </c>
@@ -10214,7 +10238,7 @@
       <c r="D134" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E134" s="143"/>
+      <c r="E134" s="164"/>
       <c r="F134" s="104" t="s">
         <v>493</v>
       </c>
@@ -10226,7 +10250,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="27.75">
-      <c r="A135" s="146"/>
+      <c r="A135" s="153"/>
       <c r="B135" s="91" t="s">
         <v>419</v>
       </c>
@@ -10236,7 +10260,7 @@
       <c r="D135" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E135" s="143"/>
+      <c r="E135" s="164"/>
       <c r="F135" s="104" t="s">
         <v>494</v>
       </c>
@@ -10248,7 +10272,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="27.75">
-      <c r="A136" s="146"/>
+      <c r="A136" s="153"/>
       <c r="B136" s="91" t="s">
         <v>420</v>
       </c>
@@ -10270,7 +10294,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="27.75">
-      <c r="A137" s="146"/>
+      <c r="A137" s="153"/>
       <c r="B137" s="91" t="s">
         <v>421</v>
       </c>
@@ -10280,7 +10304,7 @@
       <c r="D137" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E137" s="142" t="s">
+      <c r="E137" s="163" t="s">
         <v>206</v>
       </c>
       <c r="F137" s="104" t="s">
@@ -10294,7 +10318,7 @@
       </c>
     </row>
     <row r="138" spans="1:8" ht="27.75">
-      <c r="A138" s="146"/>
+      <c r="A138" s="153"/>
       <c r="B138" s="91" t="s">
         <v>407</v>
       </c>
@@ -10304,7 +10328,7 @@
       <c r="D138" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E138" s="142"/>
+      <c r="E138" s="163"/>
       <c r="F138" s="104" t="s">
         <v>497</v>
       </c>
@@ -10316,7 +10340,7 @@
       </c>
     </row>
     <row r="139" spans="1:8" ht="27.75">
-      <c r="A139" s="146"/>
+      <c r="A139" s="153"/>
       <c r="B139" s="91" t="s">
         <v>408</v>
       </c>
@@ -10326,7 +10350,7 @@
       <c r="D139" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E139" s="142"/>
+      <c r="E139" s="163"/>
       <c r="F139" s="104" t="s">
         <v>498</v>
       </c>
@@ -10338,7 +10362,7 @@
       </c>
     </row>
     <row r="140" spans="1:8" ht="27.75">
-      <c r="A140" s="146"/>
+      <c r="A140" s="153"/>
       <c r="B140" s="91" t="s">
         <v>409</v>
       </c>
@@ -10348,7 +10372,7 @@
       <c r="D140" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E140" s="142"/>
+      <c r="E140" s="163"/>
       <c r="F140" s="104" t="s">
         <v>499</v>
       </c>
@@ -10360,7 +10384,7 @@
       </c>
     </row>
     <row r="141" spans="1:8" ht="41.25">
-      <c r="A141" s="147"/>
+      <c r="A141" s="152"/>
       <c r="B141" s="91" t="s">
         <v>410</v>
       </c>
@@ -10370,7 +10394,7 @@
       <c r="D141" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E141" s="142"/>
+      <c r="E141" s="163"/>
       <c r="F141" s="104" t="s">
         <v>500</v>
       </c>
@@ -10382,7 +10406,7 @@
       </c>
     </row>
     <row r="142" spans="1:8" ht="41.25">
-      <c r="A142" s="145" t="s">
+      <c r="A142" s="151" t="s">
         <v>244</v>
       </c>
       <c r="B142" s="91" t="s">
@@ -10394,7 +10418,7 @@
       <c r="D142" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E142" s="142"/>
+      <c r="E142" s="163"/>
       <c r="F142" s="104" t="s">
         <v>501</v>
       </c>
@@ -10406,7 +10430,7 @@
       </c>
     </row>
     <row r="143" spans="1:8" ht="41.25">
-      <c r="A143" s="146"/>
+      <c r="A143" s="153"/>
       <c r="B143" s="91" t="s">
         <v>423</v>
       </c>
@@ -10416,7 +10440,7 @@
       <c r="D143" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E143" s="142"/>
+      <c r="E143" s="163"/>
       <c r="F143" s="104" t="s">
         <v>502</v>
       </c>
@@ -10428,7 +10452,7 @@
       </c>
     </row>
     <row r="144" spans="1:8" ht="41.25">
-      <c r="A144" s="147"/>
+      <c r="A144" s="152"/>
       <c r="B144" s="91" t="s">
         <v>424</v>
       </c>
@@ -10438,7 +10462,7 @@
       <c r="D144" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E144" s="142"/>
+      <c r="E144" s="163"/>
       <c r="F144" s="104" t="s">
         <v>503</v>
       </c>
@@ -10450,7 +10474,7 @@
       </c>
     </row>
     <row r="145" spans="1:8" ht="41.25">
-      <c r="A145" s="145" t="s">
+      <c r="A145" s="151" t="s">
         <v>245</v>
       </c>
       <c r="B145" s="91" t="s">
@@ -10462,7 +10486,7 @@
       <c r="D145" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E145" s="142"/>
+      <c r="E145" s="163"/>
       <c r="F145" s="104" t="s">
         <v>504</v>
       </c>
@@ -10474,7 +10498,7 @@
       </c>
     </row>
     <row r="146" spans="1:8" ht="41.25">
-      <c r="A146" s="146"/>
+      <c r="A146" s="153"/>
       <c r="B146" s="91" t="s">
         <v>407</v>
       </c>
@@ -10484,7 +10508,7 @@
       <c r="D146" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E146" s="142"/>
+      <c r="E146" s="163"/>
       <c r="F146" s="104" t="s">
         <v>505</v>
       </c>
@@ -10496,7 +10520,7 @@
       </c>
     </row>
     <row r="147" spans="1:8" ht="41.25">
-      <c r="A147" s="146"/>
+      <c r="A147" s="153"/>
       <c r="B147" s="91" t="s">
         <v>408</v>
       </c>
@@ -10506,7 +10530,7 @@
       <c r="D147" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E147" s="142"/>
+      <c r="E147" s="163"/>
       <c r="F147" s="104" t="s">
         <v>506</v>
       </c>
@@ -10518,7 +10542,7 @@
       </c>
     </row>
     <row r="148" spans="1:8" ht="41.25">
-      <c r="A148" s="146"/>
+      <c r="A148" s="153"/>
       <c r="B148" s="91" t="s">
         <v>409</v>
       </c>
@@ -10528,7 +10552,7 @@
       <c r="D148" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E148" s="142"/>
+      <c r="E148" s="163"/>
       <c r="F148" s="104" t="s">
         <v>507</v>
       </c>
@@ -10540,7 +10564,7 @@
       </c>
     </row>
     <row r="149" spans="1:8" ht="41.25">
-      <c r="A149" s="146"/>
+      <c r="A149" s="153"/>
       <c r="B149" s="91" t="s">
         <v>410</v>
       </c>
@@ -10550,7 +10574,7 @@
       <c r="D149" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E149" s="142"/>
+      <c r="E149" s="163"/>
       <c r="F149" s="104" t="s">
         <v>508</v>
       </c>
@@ -10562,7 +10586,7 @@
       </c>
     </row>
     <row r="150" spans="1:8" ht="27.75">
-      <c r="A150" s="146"/>
+      <c r="A150" s="153"/>
       <c r="B150" s="91" t="s">
         <v>425</v>
       </c>
@@ -10572,7 +10596,7 @@
       <c r="D150" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E150" s="142" t="s">
+      <c r="E150" s="163" t="s">
         <v>209</v>
       </c>
       <c r="F150" s="104" t="s">
@@ -10586,7 +10610,7 @@
       </c>
     </row>
     <row r="151" spans="1:8" ht="27.75">
-      <c r="A151" s="146"/>
+      <c r="A151" s="153"/>
       <c r="B151" s="91" t="s">
         <v>426</v>
       </c>
@@ -10596,7 +10620,7 @@
       <c r="D151" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E151" s="144"/>
+      <c r="E151" s="165"/>
       <c r="F151" s="104" t="s">
         <v>498</v>
       </c>
@@ -10608,7 +10632,7 @@
       </c>
     </row>
     <row r="152" spans="1:8" ht="27.75">
-      <c r="A152" s="146"/>
+      <c r="A152" s="153"/>
       <c r="B152" s="91" t="s">
         <v>427</v>
       </c>
@@ -10618,7 +10642,7 @@
       <c r="D152" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E152" s="144"/>
+      <c r="E152" s="165"/>
       <c r="F152" s="104" t="s">
         <v>499</v>
       </c>
@@ -10630,7 +10654,7 @@
       </c>
     </row>
     <row r="153" spans="1:8" ht="41.25">
-      <c r="A153" s="147"/>
+      <c r="A153" s="152"/>
       <c r="B153" s="91" t="s">
         <v>428</v>
       </c>
@@ -10640,7 +10664,7 @@
       <c r="D153" s="91" t="s">
         <v>71</v>
       </c>
-      <c r="E153" s="144"/>
+      <c r="E153" s="165"/>
       <c r="F153" s="104" t="s">
         <v>500</v>
       </c>
@@ -10652,7 +10676,7 @@
       </c>
     </row>
     <row r="154" spans="1:8" ht="41.25">
-      <c r="A154" s="163" t="s">
+      <c r="A154" s="160" t="s">
         <v>429</v>
       </c>
       <c r="B154" s="90" t="s">
@@ -10664,7 +10688,7 @@
       <c r="D154" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E154" s="144"/>
+      <c r="E154" s="165"/>
       <c r="F154" s="104" t="s">
         <v>501</v>
       </c>
@@ -10676,7 +10700,7 @@
       </c>
     </row>
     <row r="155" spans="1:8" ht="54">
-      <c r="A155" s="164"/>
+      <c r="A155" s="161"/>
       <c r="B155" s="90" t="s">
         <v>431</v>
       </c>
@@ -10686,7 +10710,7 @@
       <c r="D155" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E155" s="144"/>
+      <c r="E155" s="165"/>
       <c r="F155" s="104" t="s">
         <v>502</v>
       </c>
@@ -10698,7 +10722,7 @@
       </c>
     </row>
     <row r="156" spans="1:8" ht="54">
-      <c r="A156" s="164"/>
+      <c r="A156" s="161"/>
       <c r="B156" s="90" t="s">
         <v>432</v>
       </c>
@@ -10708,7 +10732,7 @@
       <c r="D156" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E156" s="144"/>
+      <c r="E156" s="165"/>
       <c r="F156" s="104" t="s">
         <v>503</v>
       </c>
@@ -10720,7 +10744,7 @@
       </c>
     </row>
     <row r="157" spans="1:8" ht="67.5">
-      <c r="A157" s="165"/>
+      <c r="A157" s="162"/>
       <c r="B157" s="90" t="s">
         <v>433</v>
       </c>
@@ -10730,7 +10754,7 @@
       <c r="D157" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E157" s="144"/>
+      <c r="E157" s="165"/>
       <c r="F157" s="104" t="s">
         <v>504</v>
       </c>
@@ -10742,7 +10766,7 @@
       </c>
     </row>
     <row r="158" spans="1:8" ht="41.25">
-      <c r="A158" s="163" t="s">
+      <c r="A158" s="160" t="s">
         <v>434</v>
       </c>
       <c r="B158" s="90" t="s">
@@ -10754,7 +10778,7 @@
       <c r="D158" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E158" s="144"/>
+      <c r="E158" s="165"/>
       <c r="F158" s="104" t="s">
         <v>505</v>
       </c>
@@ -10766,7 +10790,7 @@
       </c>
     </row>
     <row r="159" spans="1:8" ht="54">
-      <c r="A159" s="164"/>
+      <c r="A159" s="161"/>
       <c r="B159" s="90" t="s">
         <v>436</v>
       </c>
@@ -10776,7 +10800,7 @@
       <c r="D159" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E159" s="144"/>
+      <c r="E159" s="165"/>
       <c r="F159" s="104" t="s">
         <v>506</v>
       </c>
@@ -10788,7 +10812,7 @@
       </c>
     </row>
     <row r="160" spans="1:8" ht="54">
-      <c r="A160" s="165"/>
+      <c r="A160" s="162"/>
       <c r="B160" s="90" t="s">
         <v>437</v>
       </c>
@@ -10798,7 +10822,7 @@
       <c r="D160" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E160" s="144"/>
+      <c r="E160" s="165"/>
       <c r="F160" s="104" t="s">
         <v>507</v>
       </c>
@@ -10810,7 +10834,7 @@
       </c>
     </row>
     <row r="161" spans="1:8" ht="41.25">
-      <c r="A161" s="163" t="s">
+      <c r="A161" s="160" t="s">
         <v>438</v>
       </c>
       <c r="B161" s="90" t="s">
@@ -10822,7 +10846,7 @@
       <c r="D161" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E161" s="144"/>
+      <c r="E161" s="165"/>
       <c r="F161" s="104" t="s">
         <v>508</v>
       </c>
@@ -10834,7 +10858,7 @@
       </c>
     </row>
     <row r="162" spans="1:8" ht="54">
-      <c r="A162" s="164"/>
+      <c r="A162" s="161"/>
       <c r="B162" s="90" t="s">
         <v>440</v>
       </c>
@@ -10844,7 +10868,7 @@
       <c r="D162" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E162" s="142" t="s">
+      <c r="E162" s="163" t="s">
         <v>210</v>
       </c>
       <c r="F162" s="104" t="s">
@@ -10858,7 +10882,7 @@
       </c>
     </row>
     <row r="163" spans="1:8" ht="54">
-      <c r="A163" s="165"/>
+      <c r="A163" s="162"/>
       <c r="B163" s="90" t="s">
         <v>441</v>
       </c>
@@ -10868,7 +10892,7 @@
       <c r="D163" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E163" s="142"/>
+      <c r="E163" s="163"/>
       <c r="F163" s="104" t="s">
         <v>498</v>
       </c>
@@ -10880,7 +10904,7 @@
       </c>
     </row>
     <row r="164" spans="1:8" ht="27.75">
-      <c r="A164" s="163" t="s">
+      <c r="A164" s="160" t="s">
         <v>442</v>
       </c>
       <c r="B164" s="90" t="s">
@@ -10892,7 +10916,7 @@
       <c r="D164" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E164" s="142"/>
+      <c r="E164" s="163"/>
       <c r="F164" s="104" t="s">
         <v>499</v>
       </c>
@@ -10904,7 +10928,7 @@
       </c>
     </row>
     <row r="165" spans="1:8" ht="41.25">
-      <c r="A165" s="164"/>
+      <c r="A165" s="161"/>
       <c r="B165" s="90" t="s">
         <v>444</v>
       </c>
@@ -10914,7 +10938,7 @@
       <c r="D165" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E165" s="142"/>
+      <c r="E165" s="163"/>
       <c r="F165" s="104" t="s">
         <v>500</v>
       </c>
@@ -10926,7 +10950,7 @@
       </c>
     </row>
     <row r="166" spans="1:8" ht="41.25">
-      <c r="A166" s="164"/>
+      <c r="A166" s="161"/>
       <c r="B166" s="90" t="s">
         <v>445</v>
       </c>
@@ -10936,7 +10960,7 @@
       <c r="D166" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E166" s="142"/>
+      <c r="E166" s="163"/>
       <c r="F166" s="104" t="s">
         <v>501</v>
       </c>
@@ -10948,7 +10972,7 @@
       </c>
     </row>
     <row r="167" spans="1:8" ht="54.75">
-      <c r="A167" s="165"/>
+      <c r="A167" s="162"/>
       <c r="B167" s="90" t="s">
         <v>446</v>
       </c>
@@ -10958,7 +10982,7 @@
       <c r="D167" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E167" s="142"/>
+      <c r="E167" s="163"/>
       <c r="F167" s="104" t="s">
         <v>509</v>
       </c>
@@ -10970,7 +10994,7 @@
       </c>
     </row>
     <row r="168" spans="1:8" ht="54.75">
-      <c r="A168" s="148" t="s">
+      <c r="A168" s="159" t="s">
         <v>238</v>
       </c>
       <c r="B168" s="90" t="s">
@@ -10982,7 +11006,7 @@
       <c r="D168" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E168" s="142"/>
+      <c r="E168" s="163"/>
       <c r="F168" s="104" t="s">
         <v>510</v>
       </c>
@@ -10994,7 +11018,7 @@
       </c>
     </row>
     <row r="169" spans="1:8" ht="54.75">
-      <c r="A169" s="148"/>
+      <c r="A169" s="159"/>
       <c r="B169" s="90" t="s">
         <v>448</v>
       </c>
@@ -11004,7 +11028,7 @@
       <c r="D169" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E169" s="142"/>
+      <c r="E169" s="163"/>
       <c r="F169" s="104" t="s">
         <v>511</v>
       </c>
@@ -11016,7 +11040,7 @@
       </c>
     </row>
     <row r="170" spans="1:8" ht="54.75">
-      <c r="A170" s="148"/>
+      <c r="A170" s="159"/>
       <c r="B170" s="90" t="s">
         <v>449</v>
       </c>
@@ -11026,7 +11050,7 @@
       <c r="D170" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E170" s="142"/>
+      <c r="E170" s="163"/>
       <c r="F170" s="104" t="s">
         <v>512</v>
       </c>
@@ -11038,7 +11062,7 @@
       </c>
     </row>
     <row r="171" spans="1:8" ht="54.75">
-      <c r="A171" s="148" t="s">
+      <c r="A171" s="159" t="s">
         <v>241</v>
       </c>
       <c r="B171" s="90" t="s">
@@ -11050,7 +11074,7 @@
       <c r="D171" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E171" s="142"/>
+      <c r="E171" s="163"/>
       <c r="F171" s="104" t="s">
         <v>513</v>
       </c>
@@ -11062,7 +11086,7 @@
       </c>
     </row>
     <row r="172" spans="1:8" ht="54.75">
-      <c r="A172" s="148"/>
+      <c r="A172" s="159"/>
       <c r="B172" s="90" t="s">
         <v>448</v>
       </c>
@@ -11072,7 +11096,7 @@
       <c r="D172" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E172" s="142"/>
+      <c r="E172" s="163"/>
       <c r="F172" s="104" t="s">
         <v>514</v>
       </c>
@@ -11084,7 +11108,7 @@
       </c>
     </row>
     <row r="173" spans="1:8" ht="54.75">
-      <c r="A173" s="148"/>
+      <c r="A173" s="159"/>
       <c r="B173" s="90" t="s">
         <v>449</v>
       </c>
@@ -11094,7 +11118,7 @@
       <c r="D173" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E173" s="142"/>
+      <c r="E173" s="163"/>
       <c r="F173" s="104" t="s">
         <v>515</v>
       </c>
@@ -11106,7 +11130,7 @@
       </c>
     </row>
     <row r="174" spans="1:8" ht="27.75">
-      <c r="A174" s="148" t="s">
+      <c r="A174" s="159" t="s">
         <v>243</v>
       </c>
       <c r="B174" s="90" t="s">
@@ -11118,7 +11142,7 @@
       <c r="D174" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E174" s="142" t="s">
+      <c r="E174" s="163" t="s">
         <v>211</v>
       </c>
       <c r="F174" s="104" t="s">
@@ -11132,7 +11156,7 @@
       </c>
     </row>
     <row r="175" spans="1:8" ht="27.75">
-      <c r="A175" s="148"/>
+      <c r="A175" s="159"/>
       <c r="B175" s="90" t="s">
         <v>452</v>
       </c>
@@ -11142,7 +11166,7 @@
       <c r="D175" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E175" s="142"/>
+      <c r="E175" s="163"/>
       <c r="F175" s="104" t="s">
         <v>517</v>
       </c>
@@ -11154,7 +11178,7 @@
       </c>
     </row>
     <row r="176" spans="1:8" ht="27.75">
-      <c r="A176" s="148"/>
+      <c r="A176" s="159"/>
       <c r="B176" s="90" t="s">
         <v>449</v>
       </c>
@@ -11164,7 +11188,7 @@
       <c r="D176" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E176" s="142"/>
+      <c r="E176" s="163"/>
       <c r="F176" s="104" t="s">
         <v>518</v>
       </c>
@@ -11176,7 +11200,7 @@
       </c>
     </row>
     <row r="177" spans="1:8" ht="27.75">
-      <c r="E177" s="142"/>
+      <c r="E177" s="163"/>
       <c r="F177" s="104" t="s">
         <v>519</v>
       </c>
@@ -11188,7 +11212,7 @@
       </c>
     </row>
     <row r="178" spans="1:8" ht="27.75">
-      <c r="E178" s="142"/>
+      <c r="E178" s="163"/>
       <c r="F178" s="104" t="s">
         <v>520</v>
       </c>
@@ -11200,13 +11224,13 @@
       </c>
     </row>
     <row r="179" spans="1:8" ht="29.25">
-      <c r="A179" s="151" t="s">
+      <c r="A179" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="B179" s="151"/>
-      <c r="C179" s="151"/>
-      <c r="D179" s="152"/>
-      <c r="E179" s="142" t="s">
+      <c r="B179" s="144"/>
+      <c r="C179" s="144"/>
+      <c r="D179" s="145"/>
+      <c r="E179" s="163" t="s">
         <v>212</v>
       </c>
       <c r="F179" s="104" t="s">
@@ -11232,7 +11256,7 @@
       <c r="D180" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="E180" s="142"/>
+      <c r="E180" s="163"/>
       <c r="F180" s="104" t="s">
         <v>498</v>
       </c>
@@ -11256,7 +11280,7 @@
       <c r="D181" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="E181" s="142"/>
+      <c r="E181" s="163"/>
       <c r="F181" s="104" t="s">
         <v>499</v>
       </c>
@@ -11280,7 +11304,7 @@
       <c r="D182" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="E182" s="142"/>
+      <c r="E182" s="163"/>
       <c r="F182" s="104" t="s">
         <v>500</v>
       </c>
@@ -11304,7 +11328,7 @@
       <c r="D183" s="106" t="s">
         <v>528</v>
       </c>
-      <c r="E183" s="142"/>
+      <c r="E183" s="163"/>
       <c r="F183" s="104" t="s">
         <v>501</v>
       </c>
@@ -11328,7 +11352,7 @@
       <c r="D184" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="E184" s="142"/>
+      <c r="E184" s="163"/>
       <c r="F184" s="104" t="s">
         <v>509</v>
       </c>
@@ -11340,7 +11364,7 @@
       </c>
     </row>
     <row r="185" spans="1:8" ht="54.75">
-      <c r="E185" s="142"/>
+      <c r="E185" s="163"/>
       <c r="F185" s="104" t="s">
         <v>510</v>
       </c>
@@ -11352,7 +11376,7 @@
       </c>
     </row>
     <row r="186" spans="1:8" ht="54.75">
-      <c r="E186" s="142"/>
+      <c r="E186" s="163"/>
       <c r="F186" s="104" t="s">
         <v>511</v>
       </c>
@@ -11364,7 +11388,7 @@
       </c>
     </row>
     <row r="187" spans="1:8" ht="54.75">
-      <c r="E187" s="142"/>
+      <c r="E187" s="163"/>
       <c r="F187" s="104" t="s">
         <v>512</v>
       </c>
@@ -11376,7 +11400,7 @@
       </c>
     </row>
     <row r="188" spans="1:8" ht="54.75">
-      <c r="E188" s="142"/>
+      <c r="E188" s="163"/>
       <c r="F188" s="104" t="s">
         <v>513</v>
       </c>
@@ -11388,7 +11412,7 @@
       </c>
     </row>
     <row r="189" spans="1:8" ht="54.75">
-      <c r="E189" s="142"/>
+      <c r="E189" s="163"/>
       <c r="F189" s="104" t="s">
         <v>514</v>
       </c>
@@ -11400,7 +11424,7 @@
       </c>
     </row>
     <row r="190" spans="1:8" ht="54.75">
-      <c r="E190" s="142"/>
+      <c r="E190" s="163"/>
       <c r="F190" s="104" t="s">
         <v>515</v>
       </c>
@@ -11413,6 +11437,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E179:E190"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="E107:E118"/>
+    <mergeCell ref="E119:E129"/>
+    <mergeCell ref="E137:E149"/>
+    <mergeCell ref="E150:E161"/>
+    <mergeCell ref="E162:E173"/>
+    <mergeCell ref="E174:E178"/>
+    <mergeCell ref="A126:A141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:A153"/>
+    <mergeCell ref="A168:A170"/>
+    <mergeCell ref="A171:A173"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A179:D179"/>
@@ -11429,20 +11467,6 @@
     <mergeCell ref="A154:A157"/>
     <mergeCell ref="A158:A160"/>
     <mergeCell ref="A164:A167"/>
-    <mergeCell ref="A126:A141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:A153"/>
-    <mergeCell ref="A168:A170"/>
-    <mergeCell ref="A171:A173"/>
-    <mergeCell ref="E179:E190"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="E107:E118"/>
-    <mergeCell ref="E119:E129"/>
-    <mergeCell ref="E137:E149"/>
-    <mergeCell ref="E150:E161"/>
-    <mergeCell ref="E162:E173"/>
-    <mergeCell ref="E174:E178"/>
   </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11452,10 +11476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11683,11 +11707,45 @@
       </c>
       <c r="K7" s="8"/>
     </row>
+    <row r="8" spans="1:11" ht="24">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>537</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>538</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>539</v>
+      </c>
+      <c r="E8" s="71" t="s">
+        <v>540</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>541</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>542</v>
+      </c>
+      <c r="I8" s="7">
+        <v>43649</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="55" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>